--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.322787265494913</v>
+        <v>6.322787265495042</v>
       </c>
       <c r="D2">
-        <v>8.648105955774158</v>
+        <v>8.64810595577436</v>
       </c>
       <c r="E2">
-        <v>88.16726121710383</v>
+        <v>88.16726121710408</v>
       </c>
       <c r="F2">
-        <v>48.25985064512727</v>
+        <v>48.25985064512745</v>
       </c>
       <c r="G2">
-        <v>39.38941438473977</v>
+        <v>39.38941438473998</v>
       </c>
       <c r="H2">
-        <v>36.78047837982031</v>
+        <v>36.78047837982049</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>119.8878006119078</v>
+        <v>119.8878006119081</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.004772154137158</v>
+        <v>5.004772154137014</v>
       </c>
       <c r="D3">
-        <v>6.605230140595935</v>
+        <v>6.605230140595869</v>
       </c>
       <c r="E3">
-        <v>75.07918089256837</v>
+        <v>75.07918089256817</v>
       </c>
       <c r="F3">
-        <v>38.17947244690757</v>
+        <v>38.17947244690798</v>
       </c>
       <c r="G3">
-        <v>30.88110635517426</v>
+        <v>30.88110635517454</v>
       </c>
       <c r="H3">
-        <v>29.13389726847181</v>
+        <v>29.13389726847209</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>103.2635803254979</v>
+        <v>103.2635803254978</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.477461909240299</v>
+        <v>4.477461909240418</v>
       </c>
       <c r="D4">
-        <v>5.786776175955476</v>
+        <v>5.786776175955273</v>
       </c>
       <c r="E4">
-        <v>69.37367591418689</v>
+        <v>69.37367591418663</v>
       </c>
       <c r="F4">
-        <v>33.90650884076593</v>
+        <v>33.90650884076613</v>
       </c>
       <c r="G4">
-        <v>27.29531369990311</v>
+        <v>27.29531369990325</v>
       </c>
       <c r="H4">
-        <v>25.88542514301144</v>
+        <v>25.88542514301155</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>95.73991373386531</v>
+        <v>95.73991373386509</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.286808775465037</v>
+        <v>4.286808775464933</v>
       </c>
       <c r="D5">
-        <v>5.491543390130933</v>
+        <v>5.491543390130667</v>
       </c>
       <c r="E5">
-        <v>67.22369750512118</v>
+        <v>67.22369750512154</v>
       </c>
       <c r="F5">
-        <v>32.33564039283559</v>
+        <v>32.33564039283548</v>
       </c>
       <c r="G5">
-        <v>25.97874155469595</v>
+        <v>25.97874155469582</v>
       </c>
       <c r="H5">
-        <v>24.6886988870706</v>
+        <v>24.68869888707049</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>92.87446815768271</v>
+        <v>92.87446815768298</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.256169468692599</v>
+        <v>4.256169468692829</v>
       </c>
       <c r="D6">
-        <v>5.444150442944254</v>
+        <v>5.444150442944188</v>
       </c>
       <c r="E6">
-        <v>66.87343858686194</v>
+        <v>66.87343858686192</v>
       </c>
       <c r="F6">
-        <v>32.08209953776642</v>
+        <v>32.08209953776603</v>
       </c>
       <c r="G6">
-        <v>25.76629543645305</v>
+        <v>25.7662954364527</v>
       </c>
       <c r="H6">
-        <v>24.49537969162589</v>
+        <v>24.49537969162552</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>92.40628241943196</v>
+        <v>92.40628241943189</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.474814797673978</v>
+        <v>4.474814797674213</v>
       </c>
       <c r="D7">
-        <v>5.782673577940291</v>
+        <v>5.782673577940225</v>
       </c>
       <c r="E7">
-        <v>69.34416327985495</v>
+        <v>69.34416327985498</v>
       </c>
       <c r="F7">
-        <v>33.88478292434556</v>
+        <v>33.8847829243458</v>
       </c>
       <c r="G7">
-        <v>27.27710034942192</v>
+        <v>27.27710034942208</v>
       </c>
       <c r="H7">
-        <v>25.86888487784195</v>
+        <v>25.8688848778421</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>95.70068178475043</v>
+        <v>95.70068178475057</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D8">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E8">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F8">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G8">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H8">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D9">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E9">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F9">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G9">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H9">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D10">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E10">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F10">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G10">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H10">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D11">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E11">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F11">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G11">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H11">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D12">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E12">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F12">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G12">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H12">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D13">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E13">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F13">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G13">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H13">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D14">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E14">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F14">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G14">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H14">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D15">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E15">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F15">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G15">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H15">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D16">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E16">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F16">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G16">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H16">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D17">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E17">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F17">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G17">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H17">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D18">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E18">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F18">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G18">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H18">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D19">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E19">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F19">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G19">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H19">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D20">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E20">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F20">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G20">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H20">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D21">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E21">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F21">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G21">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H21">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D22">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E22">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F22">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G22">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H22">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D23">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E23">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F23">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G23">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H23">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D24">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E24">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F24">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G24">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H24">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.741528557009797</v>
+        <v>5.741528557009805</v>
       </c>
       <c r="D25">
-        <v>7.749118913339357</v>
+        <v>7.749118913339561</v>
       </c>
       <c r="E25">
-        <v>82.56329116510041</v>
+        <v>82.56329116510111</v>
       </c>
       <c r="F25">
-        <v>43.93271703925527</v>
+        <v>43.93271703925626</v>
       </c>
       <c r="G25">
-        <v>35.72633350362116</v>
+        <v>35.72633350362204</v>
       </c>
       <c r="H25">
-        <v>33.49910034547619</v>
+        <v>33.499100345477</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>112.9026671601873</v>
+        <v>112.9026671601883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.322787265495042</v>
+        <v>6.322787265494913</v>
       </c>
       <c r="D2">
-        <v>8.64810595577436</v>
+        <v>8.648105955774158</v>
       </c>
       <c r="E2">
-        <v>88.16726121710408</v>
+        <v>88.16726121710383</v>
       </c>
       <c r="F2">
-        <v>48.25985064512745</v>
+        <v>48.25985064512727</v>
       </c>
       <c r="G2">
-        <v>39.38941438473998</v>
+        <v>39.38941438473977</v>
       </c>
       <c r="H2">
-        <v>36.78047837982049</v>
+        <v>36.78047837982031</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>119.8878006119081</v>
+        <v>119.8878006119078</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.004772154137014</v>
+        <v>5.004772154137158</v>
       </c>
       <c r="D3">
-        <v>6.605230140595869</v>
+        <v>6.605230140595935</v>
       </c>
       <c r="E3">
-        <v>75.07918089256817</v>
+        <v>75.07918089256837</v>
       </c>
       <c r="F3">
-        <v>38.17947244690798</v>
+        <v>38.17947244690757</v>
       </c>
       <c r="G3">
-        <v>30.88110635517454</v>
+        <v>30.88110635517426</v>
       </c>
       <c r="H3">
-        <v>29.13389726847209</v>
+        <v>29.13389726847181</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>103.2635803254978</v>
+        <v>103.2635803254979</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.477461909240418</v>
+        <v>4.477461909240299</v>
       </c>
       <c r="D4">
-        <v>5.786776175955273</v>
+        <v>5.786776175955476</v>
       </c>
       <c r="E4">
-        <v>69.37367591418663</v>
+        <v>69.37367591418689</v>
       </c>
       <c r="F4">
-        <v>33.90650884076613</v>
+        <v>33.90650884076593</v>
       </c>
       <c r="G4">
-        <v>27.29531369990325</v>
+        <v>27.29531369990311</v>
       </c>
       <c r="H4">
-        <v>25.88542514301155</v>
+        <v>25.88542514301144</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>95.73991373386509</v>
+        <v>95.73991373386531</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.286808775464933</v>
+        <v>4.286808775465037</v>
       </c>
       <c r="D5">
-        <v>5.491543390130667</v>
+        <v>5.491543390130933</v>
       </c>
       <c r="E5">
-        <v>67.22369750512154</v>
+        <v>67.22369750512118</v>
       </c>
       <c r="F5">
-        <v>32.33564039283548</v>
+        <v>32.33564039283559</v>
       </c>
       <c r="G5">
-        <v>25.97874155469582</v>
+        <v>25.97874155469595</v>
       </c>
       <c r="H5">
-        <v>24.68869888707049</v>
+        <v>24.6886988870706</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>92.87446815768298</v>
+        <v>92.87446815768271</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.256169468692829</v>
+        <v>4.256169468692599</v>
       </c>
       <c r="D6">
-        <v>5.444150442944188</v>
+        <v>5.444150442944254</v>
       </c>
       <c r="E6">
-        <v>66.87343858686192</v>
+        <v>66.87343858686194</v>
       </c>
       <c r="F6">
-        <v>32.08209953776603</v>
+        <v>32.08209953776642</v>
       </c>
       <c r="G6">
-        <v>25.7662954364527</v>
+        <v>25.76629543645305</v>
       </c>
       <c r="H6">
-        <v>24.49537969162552</v>
+        <v>24.49537969162589</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>92.40628241943189</v>
+        <v>92.40628241943196</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.474814797674213</v>
+        <v>4.474814797673978</v>
       </c>
       <c r="D7">
-        <v>5.782673577940225</v>
+        <v>5.782673577940291</v>
       </c>
       <c r="E7">
-        <v>69.34416327985498</v>
+        <v>69.34416327985495</v>
       </c>
       <c r="F7">
-        <v>33.8847829243458</v>
+        <v>33.88478292434556</v>
       </c>
       <c r="G7">
-        <v>27.27710034942208</v>
+        <v>27.27710034942192</v>
       </c>
       <c r="H7">
-        <v>25.8688848778421</v>
+        <v>25.86888487784195</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>95.70068178475057</v>
+        <v>95.70068178475043</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D8">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E8">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F8">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G8">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H8">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D9">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E9">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F9">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G9">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H9">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D10">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E10">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F10">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G10">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H10">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D11">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E11">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F11">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G11">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H11">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D12">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E12">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F12">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G12">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H12">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D13">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E13">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F13">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G13">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H13">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D14">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E14">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F14">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G14">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H14">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D15">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E15">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F15">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G15">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H15">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D16">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E16">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F16">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G16">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H16">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D17">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E17">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F17">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G17">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H17">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D18">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E18">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F18">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G18">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H18">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D19">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E19">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F19">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G19">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H19">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D20">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E20">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F20">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G20">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H20">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D21">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E21">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F21">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G21">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H21">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D22">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E22">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F22">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G22">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H22">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D23">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E23">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F23">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G23">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H23">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D24">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E24">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F24">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G24">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H24">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.741528557009805</v>
+        <v>5.741528557009797</v>
       </c>
       <c r="D25">
-        <v>7.749118913339561</v>
+        <v>7.749118913339357</v>
       </c>
       <c r="E25">
-        <v>82.56329116510111</v>
+        <v>82.56329116510041</v>
       </c>
       <c r="F25">
-        <v>43.93271703925626</v>
+        <v>43.93271703925527</v>
       </c>
       <c r="G25">
-        <v>35.72633350362204</v>
+        <v>35.72633350362116</v>
       </c>
       <c r="H25">
-        <v>33.499100345477</v>
+        <v>33.49910034547619</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>112.9026671601883</v>
+        <v>112.9026671601873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.322787265494913</v>
+        <v>6.315189112944481</v>
       </c>
       <c r="D2">
-        <v>8.648105955774158</v>
+        <v>8.635192673844648</v>
       </c>
       <c r="E2">
-        <v>88.16726121710383</v>
+        <v>88.13968654309343</v>
       </c>
       <c r="F2">
-        <v>48.25985064512727</v>
+        <v>48.19868457863277</v>
       </c>
       <c r="G2">
-        <v>39.38941438473977</v>
+        <v>39.43061408203486</v>
       </c>
       <c r="H2">
-        <v>36.78047837982031</v>
+        <v>38.10342305385758</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>36.73405416147605</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,10 +445,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>119.8878006119078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>119.8494946757651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,25 +459,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.004772154137158</v>
+        <v>5.001520663507737</v>
       </c>
       <c r="D3">
-        <v>6.605230140595935</v>
+        <v>6.598588257406012</v>
       </c>
       <c r="E3">
-        <v>75.07918089256837</v>
+        <v>75.0732101641902</v>
       </c>
       <c r="F3">
-        <v>38.17947244690757</v>
+        <v>38.14491707095944</v>
       </c>
       <c r="G3">
-        <v>30.88110635517426</v>
+        <v>30.92441942107282</v>
       </c>
       <c r="H3">
-        <v>29.13389726847181</v>
+        <v>29.67404081263031</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.10760702191527</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,10 +486,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>103.2635803254979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>103.2527042114082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,25 +500,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.477461909240299</v>
+        <v>4.475224779287529</v>
       </c>
       <c r="D4">
-        <v>5.786776175955476</v>
+        <v>5.781591909259117</v>
       </c>
       <c r="E4">
-        <v>69.37367591418689</v>
+        <v>69.37020977053635</v>
       </c>
       <c r="F4">
-        <v>33.90650884076593</v>
+        <v>33.87795090480893</v>
       </c>
       <c r="G4">
-        <v>27.29531369990311</v>
+        <v>27.33508913172162</v>
       </c>
       <c r="H4">
-        <v>25.88542514301144</v>
+        <v>26.14052853100454</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>25.86366291733068</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,10 +527,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>95.73991373386531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>95.73284227349141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,25 +541,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.286808775465037</v>
+        <v>4.284898312664477</v>
       </c>
       <c r="D5">
-        <v>5.491543390130933</v>
+        <v>5.486834833909455</v>
       </c>
       <c r="E5">
-        <v>67.22369750512118</v>
+        <v>67.22085753332509</v>
       </c>
       <c r="F5">
-        <v>32.33564039283559</v>
+        <v>32.30900969711173</v>
       </c>
       <c r="G5">
-        <v>25.97874155469595</v>
+        <v>26.01699543815887</v>
       </c>
       <c r="H5">
-        <v>24.6886988870706</v>
+        <v>24.84837437288217</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>24.66839175174262</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,10 +568,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>92.87446815768271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>92.8684239589427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,25 +582,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.256169468692599</v>
+        <v>4.254309857830869</v>
       </c>
       <c r="D6">
-        <v>5.444150442944254</v>
+        <v>5.439516376050657</v>
       </c>
       <c r="E6">
-        <v>66.87343858686194</v>
+        <v>66.87068893357034</v>
       </c>
       <c r="F6">
-        <v>32.08209953776642</v>
+        <v>32.05576902675968</v>
       </c>
       <c r="G6">
-        <v>25.76629543645305</v>
+        <v>25.80429532407611</v>
       </c>
       <c r="H6">
-        <v>24.49537969162589</v>
+        <v>24.64019302622809</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>24.47529922380538</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,10 +609,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>92.40628241943196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>92.40039008024068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,25 +623,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.474814797673978</v>
+        <v>4.472582329784187</v>
       </c>
       <c r="D7">
-        <v>5.782673577940291</v>
+        <v>5.777496070229526</v>
       </c>
       <c r="E7">
-        <v>69.34416327985495</v>
+        <v>69.34070664868278</v>
       </c>
       <c r="F7">
-        <v>33.88478292434556</v>
+        <v>33.85625248832999</v>
       </c>
       <c r="G7">
-        <v>27.27710034942192</v>
+        <v>27.31685539728027</v>
       </c>
       <c r="H7">
-        <v>25.86888487784195</v>
+        <v>26.1226308450906</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>25.8471434136252</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,10 +650,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>95.70068178475043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>95.69362562876245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,25 +664,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D8">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E8">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F8">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G8">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H8">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,10 +691,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,25 +705,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D9">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E9">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F9">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G9">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H9">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,10 +732,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,25 +746,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D10">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E10">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F10">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G10">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H10">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,10 +773,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,25 +787,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D11">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E11">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F11">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G11">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H11">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,10 +814,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,25 +828,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D12">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E12">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F12">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G12">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H12">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,10 +855,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,25 +869,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D13">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E13">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F13">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G13">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H13">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,10 +896,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,25 +910,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D14">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E14">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F14">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G14">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H14">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,10 +937,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,25 +951,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D15">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E15">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F15">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G15">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H15">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,10 +978,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,25 +992,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D16">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E16">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F16">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G16">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H16">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,10 +1019,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,25 +1033,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D17">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E17">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F17">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G17">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H17">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,10 +1060,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,25 +1074,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D18">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E18">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F18">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G18">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H18">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,10 +1101,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,25 +1115,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D19">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E19">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F19">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G19">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H19">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,10 +1142,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,25 +1156,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D20">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E20">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F20">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G20">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H20">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,10 +1183,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,25 +1197,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D21">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E21">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F21">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G21">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H21">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,10 +1224,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,25 +1238,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D22">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E22">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F22">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G22">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H22">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,10 +1265,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,25 +1279,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D23">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E23">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F23">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G23">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H23">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,10 +1306,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D24">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E24">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F24">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G24">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H24">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,10 +1347,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>112.9026671601873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>112.8820454557683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,25 +1361,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.741528557009797</v>
+        <v>5.736398732605926</v>
       </c>
       <c r="D25">
-        <v>7.749118913339357</v>
+        <v>7.739791214859909</v>
       </c>
       <c r="E25">
-        <v>82.56329116510041</v>
+        <v>82.55010351216025</v>
       </c>
       <c r="F25">
-        <v>43.93271703925527</v>
+        <v>43.88686613612799</v>
       </c>
       <c r="G25">
-        <v>35.72633350362116</v>
+        <v>35.77174536920825</v>
       </c>
       <c r="H25">
-        <v>33.49910034547619</v>
+        <v>34.47043911898726</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>33.46427390646032</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>112.9026671601873</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>112.8820454557683</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.315189112944481</v>
+        <v>7.695706270344157</v>
       </c>
       <c r="D2">
-        <v>8.635192673844648</v>
+        <v>6.630625926473703</v>
       </c>
       <c r="E2">
-        <v>88.13968654309343</v>
+        <v>10.18051158552363</v>
       </c>
       <c r="F2">
-        <v>48.19868457863277</v>
+        <v>40.87156565923117</v>
       </c>
       <c r="G2">
-        <v>39.43061408203486</v>
+        <v>1.936639875917353</v>
       </c>
       <c r="H2">
-        <v>38.10342305385758</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>36.73405416147605</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.440001135533453</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>100.2504163484946</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>119.8494946757651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.03969870276772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.001520663507737</v>
+        <v>7.04803695581921</v>
       </c>
       <c r="D3">
-        <v>6.598588257406012</v>
+        <v>6.115115094445437</v>
       </c>
       <c r="E3">
-        <v>75.0732101641902</v>
+        <v>9.701576491745596</v>
       </c>
       <c r="F3">
-        <v>38.14491707095944</v>
+        <v>36.83440991118942</v>
       </c>
       <c r="G3">
-        <v>30.92441942107282</v>
+        <v>1.972133024760336</v>
       </c>
       <c r="H3">
-        <v>29.67404081263031</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>29.10760702191527</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.288434226891905</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>92.51821673417314</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>103.2527042114082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.71305894824951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.475224779287529</v>
+        <v>6.64639150487778</v>
       </c>
       <c r="D4">
-        <v>5.781591909259117</v>
+        <v>5.808419394378425</v>
       </c>
       <c r="E4">
-        <v>69.37020977053635</v>
+        <v>9.410785835788298</v>
       </c>
       <c r="F4">
-        <v>33.87795090480893</v>
+        <v>34.73004321522318</v>
       </c>
       <c r="G4">
-        <v>27.33508913172162</v>
+        <v>1.993159003665041</v>
       </c>
       <c r="H4">
-        <v>26.14052853100454</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>25.86366291733068</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.210876811134941</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>87.65418000253133</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>95.73284227349141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>24.83662790924165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.284898312664477</v>
+        <v>6.480962568792934</v>
       </c>
       <c r="D5">
-        <v>5.486834833909455</v>
+        <v>5.684913161812066</v>
       </c>
       <c r="E5">
-        <v>67.22085753332509</v>
+        <v>9.292775277335542</v>
       </c>
       <c r="F5">
-        <v>32.30900969711173</v>
+        <v>34.01257457642122</v>
       </c>
       <c r="G5">
-        <v>26.01699543815887</v>
+        <v>2.001603760482726</v>
       </c>
       <c r="H5">
-        <v>24.84837437288217</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>24.66839175174262</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.182611389835708</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>85.63725182856263</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>92.8684239589427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>24.11820601257716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.254309857830869</v>
+        <v>6.453368810383267</v>
       </c>
       <c r="D6">
-        <v>5.439516376050657</v>
+        <v>5.664470138035398</v>
       </c>
       <c r="E6">
-        <v>66.87068893357034</v>
+        <v>9.273201982721174</v>
       </c>
       <c r="F6">
-        <v>32.05576902675968</v>
+        <v>33.89683349408483</v>
       </c>
       <c r="G6">
-        <v>25.80429532407611</v>
+        <v>2.003000226277448</v>
       </c>
       <c r="H6">
-        <v>24.64019302622809</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>24.47529922380538</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.178105766090865</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>85.30541451610003</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>92.40039008024068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>24.03661884660389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.472582329784187</v>
+        <v>6.644168433187852</v>
       </c>
       <c r="D7">
-        <v>5.777496070229526</v>
+        <v>5.806748890209066</v>
       </c>
       <c r="E7">
-        <v>69.34070664868278</v>
+        <v>9.409192668310228</v>
       </c>
       <c r="F7">
-        <v>33.85625248832999</v>
+        <v>34.72013601255652</v>
       </c>
       <c r="G7">
-        <v>27.31685539728027</v>
+        <v>1.993273314638499</v>
       </c>
       <c r="H7">
-        <v>26.1226308450906</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>25.8471434136252</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.210482733370625</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>87.6271162070684</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>95.69362562876245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>24.82666631072351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.736398732605926</v>
+        <v>7.472687058457923</v>
       </c>
       <c r="D8">
-        <v>7.739791214859909</v>
+        <v>6.450136250504368</v>
       </c>
       <c r="E8">
-        <v>82.55010351216025</v>
+        <v>10.01444395502016</v>
       </c>
       <c r="F8">
-        <v>43.88686613612799</v>
+        <v>39.42886007270193</v>
       </c>
       <c r="G8">
-        <v>35.77174536920825</v>
+        <v>1.949085678572217</v>
       </c>
       <c r="H8">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.38413779945609</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>97.60385811906033</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.85429977054297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.736398732605926</v>
+        <v>9.117684655225107</v>
       </c>
       <c r="D9">
-        <v>7.739791214859909</v>
+        <v>7.859347955478125</v>
       </c>
       <c r="E9">
-        <v>82.55010351216025</v>
+        <v>11.25405588776185</v>
       </c>
       <c r="F9">
-        <v>43.88686613612799</v>
+        <v>51.24693462789763</v>
       </c>
       <c r="G9">
-        <v>35.77174536920825</v>
+        <v>1.851554621761389</v>
       </c>
       <c r="H9">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.88481800895016</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>116.6975285036107</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>38.49312700926305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.736398732605926</v>
+        <v>10.4757485230963</v>
       </c>
       <c r="D10">
-        <v>7.739791214859909</v>
+        <v>9.170993888325766</v>
       </c>
       <c r="E10">
-        <v>82.55010351216025</v>
+        <v>12.27419718894453</v>
       </c>
       <c r="F10">
-        <v>43.88686613612799</v>
+        <v>62.87311491865579</v>
       </c>
       <c r="G10">
-        <v>35.77174536920825</v>
+        <v>1.760496312422783</v>
       </c>
       <c r="H10">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.930373312042008</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>131.6139408149465</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>47.88950957782825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.736398732605926</v>
+        <v>11.21243075216937</v>
       </c>
       <c r="D11">
-        <v>7.739791214859909</v>
+        <v>9.94602332434112</v>
       </c>
       <c r="E11">
-        <v>82.55010351216025</v>
+        <v>12.81248938813628</v>
       </c>
       <c r="F11">
-        <v>43.88686613612799</v>
+        <v>69.83718524772789</v>
       </c>
       <c r="G11">
-        <v>35.77174536920825</v>
+        <v>1.706784650305063</v>
       </c>
       <c r="H11">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.517693757840822</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>139.3164375790575</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>53.5031458863792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.736398732605926</v>
+        <v>11.53172395030463</v>
       </c>
       <c r="D12">
-        <v>7.739791214859909</v>
+        <v>10.29706134390904</v>
       </c>
       <c r="E12">
-        <v>82.55010351216025</v>
+        <v>13.04055357132599</v>
       </c>
       <c r="F12">
-        <v>43.88686613612799</v>
+        <v>72.99760818782323</v>
       </c>
       <c r="G12">
-        <v>35.77174536920825</v>
+        <v>1.682506481567624</v>
       </c>
       <c r="H12">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.774426266947714</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>142.5565774450413</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>56.04932376725267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.736398732605926</v>
+        <v>11.46030779357554</v>
       </c>
       <c r="D13">
-        <v>7.739791214859909</v>
+        <v>10.21772132405843</v>
       </c>
       <c r="E13">
-        <v>82.55010351216025</v>
+        <v>12.98986110644197</v>
       </c>
       <c r="F13">
-        <v>43.88686613612799</v>
+        <v>72.28324250002449</v>
       </c>
       <c r="G13">
-        <v>35.77174536920825</v>
+        <v>1.687990488910533</v>
       </c>
       <c r="H13">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.716885191611077</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>141.8373618773487</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>55.47383898128911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.736398732605926</v>
+        <v>11.23761164465274</v>
       </c>
       <c r="D14">
-        <v>7.739791214859909</v>
+        <v>9.973366110540075</v>
       </c>
       <c r="E14">
-        <v>82.55010351216025</v>
+        <v>12.8306046441589</v>
       </c>
       <c r="F14">
-        <v>43.88686613612799</v>
+        <v>70.08330594160574</v>
       </c>
       <c r="G14">
-        <v>35.77174536920825</v>
+        <v>1.704892313092166</v>
       </c>
       <c r="H14">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.537891885294512</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>139.5742377981777</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>53.70145122823823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.736398732605926</v>
+        <v>11.10777447703743</v>
       </c>
       <c r="D15">
-        <v>7.739791214859909</v>
+        <v>9.832998770422098</v>
       </c>
       <c r="E15">
-        <v>82.55010351216025</v>
+        <v>12.7369767391254</v>
       </c>
       <c r="F15">
-        <v>43.88686613612799</v>
+        <v>68.81998804055893</v>
       </c>
       <c r="G15">
-        <v>35.77174536920825</v>
+        <v>1.714608974254235</v>
       </c>
       <c r="H15">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.43383534294489</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>138.2409300811896</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>52.68351978196529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.736398732605926</v>
+        <v>10.43131797879103</v>
       </c>
       <c r="D16">
-        <v>7.739791214859909</v>
+        <v>9.125745716344131</v>
       </c>
       <c r="E16">
-        <v>82.55010351216025</v>
+        <v>12.2412849982947</v>
       </c>
       <c r="F16">
-        <v>43.88686613612799</v>
+        <v>62.4677293992734</v>
       </c>
       <c r="G16">
-        <v>35.77174536920825</v>
+        <v>1.763635713255325</v>
       </c>
       <c r="H16">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.895167390285546</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>131.1399663201843</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>47.56252283519157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.736398732605926</v>
+        <v>10.05558889283279</v>
       </c>
       <c r="D17">
-        <v>7.739791214859909</v>
+        <v>8.749626832760629</v>
       </c>
       <c r="E17">
-        <v>82.55010351216025</v>
+        <v>11.96136209512749</v>
       </c>
       <c r="F17">
-        <v>43.88686613612799</v>
+        <v>59.1064865273851</v>
       </c>
       <c r="G17">
-        <v>35.77174536920825</v>
+        <v>1.789741439970495</v>
       </c>
       <c r="H17">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.598396752566969</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>127.0918302462749</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>44.84997931244346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.736398732605926</v>
+        <v>9.848755141233614</v>
       </c>
       <c r="D18">
-        <v>7.739791214859909</v>
+        <v>8.547450393434337</v>
       </c>
       <c r="E18">
-        <v>82.55010351216025</v>
+        <v>11.80622484309</v>
       </c>
       <c r="F18">
-        <v>43.88686613612799</v>
+        <v>57.30754462383504</v>
       </c>
       <c r="G18">
-        <v>35.77174536920825</v>
+        <v>1.803779134036677</v>
       </c>
       <c r="H18">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.435740315969127</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>124.8339729126036</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>43.39702571667996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.736398732605926</v>
+        <v>9.779999675044941</v>
       </c>
       <c r="D19">
-        <v>7.739791214859909</v>
+        <v>8.480992093650691</v>
       </c>
       <c r="E19">
-        <v>82.55010351216025</v>
+        <v>11.75451908084255</v>
       </c>
       <c r="F19">
-        <v>43.88686613612799</v>
+        <v>56.71768347567959</v>
       </c>
       <c r="G19">
-        <v>35.77174536920825</v>
+        <v>1.808393900630885</v>
       </c>
       <c r="H19">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.381780051852983</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>124.07895899104</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>42.92039273887632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.736398732605926</v>
+        <v>10.09454291248527</v>
       </c>
       <c r="D20">
-        <v>7.739791214859909</v>
+        <v>8.788086300099797</v>
       </c>
       <c r="E20">
-        <v>82.55010351216025</v>
+        <v>11.99050449472066</v>
       </c>
       <c r="F20">
-        <v>43.88686613612799</v>
+        <v>59.44938711798923</v>
       </c>
       <c r="G20">
-        <v>35.77174536920825</v>
+        <v>1.787071380966471</v>
       </c>
       <c r="H20">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.629086639164948</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>127.5147709823405</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>45.12682586530232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.736398732605926</v>
+        <v>11.30154048456752</v>
       </c>
       <c r="D21">
-        <v>7.739791214859909</v>
+        <v>10.04304404961044</v>
       </c>
       <c r="E21">
-        <v>82.55010351216025</v>
+        <v>12.87649936672894</v>
       </c>
       <c r="F21">
-        <v>43.88686613612799</v>
+        <v>70.71055428241819</v>
       </c>
       <c r="G21">
-        <v>35.77174536920825</v>
+        <v>1.700070988352248</v>
       </c>
       <c r="H21">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.589207936810565</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>140.2270193340277</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>54.20682286068767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.736398732605926</v>
+        <v>12.40102654003064</v>
       </c>
       <c r="D22">
-        <v>7.739791214859909</v>
+        <v>11.30265839212006</v>
       </c>
       <c r="E22">
-        <v>82.55010351216025</v>
+        <v>13.64033043566113</v>
       </c>
       <c r="F22">
-        <v>43.88686613612799</v>
+        <v>82.04132161323557</v>
       </c>
       <c r="G22">
-        <v>35.77174536920825</v>
+        <v>1.613193135014553</v>
       </c>
       <c r="H22">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.480493994264645</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>151.0340429743062</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>63.33455659259598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.736398732605926</v>
+        <v>11.75669125540458</v>
       </c>
       <c r="D23">
-        <v>7.739791214859909</v>
+        <v>10.55015630201978</v>
       </c>
       <c r="E23">
-        <v>82.55010351216025</v>
+        <v>13.19894633472688</v>
       </c>
       <c r="F23">
-        <v>43.88686613612799</v>
+        <v>75.27616552386282</v>
       </c>
       <c r="G23">
-        <v>35.77174536920825</v>
+        <v>1.665026175176075</v>
       </c>
       <c r="H23">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.956137494532074</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>144.8006350633541</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>57.88481294473436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.736398732605926</v>
+        <v>10.07690431752577</v>
       </c>
       <c r="D24">
-        <v>7.739791214859909</v>
+        <v>8.770656498744835</v>
       </c>
       <c r="E24">
-        <v>82.55010351216025</v>
+        <v>11.97731181564744</v>
       </c>
       <c r="F24">
-        <v>43.88686613612799</v>
+        <v>59.29395939154092</v>
       </c>
       <c r="G24">
-        <v>35.77174536920825</v>
+        <v>1.788281435310652</v>
       </c>
       <c r="H24">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.615187875654684</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>127.3233522639276</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>112.8820454557683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>45.00134255113129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.736398732605926</v>
+        <v>8.661065093481289</v>
       </c>
       <c r="D25">
-        <v>7.739791214859909</v>
+        <v>7.449583113355061</v>
       </c>
       <c r="E25">
-        <v>82.55010351216025</v>
+        <v>10.90795301754771</v>
       </c>
       <c r="F25">
-        <v>43.88686613612799</v>
+        <v>47.70423101415778</v>
       </c>
       <c r="G25">
-        <v>35.77174536920825</v>
+        <v>1.879979802572534</v>
       </c>
       <c r="H25">
-        <v>34.47043911898726</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>33.46427390646032</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.725549234682942</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>111.5006972551557</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>112.8820454557683</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>35.61746032800471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.695706270344157</v>
+        <v>6.98010460391251</v>
       </c>
       <c r="D2">
-        <v>6.630625926473703</v>
+        <v>2.510242307889043</v>
       </c>
       <c r="E2">
-        <v>10.18051158552363</v>
+        <v>9.730014236902068</v>
       </c>
       <c r="F2">
-        <v>40.87156565923117</v>
+        <v>33.18803678465115</v>
       </c>
       <c r="G2">
-        <v>1.936639875917353</v>
+        <v>2.017366678337416</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>26.12234104837356</v>
       </c>
       <c r="J2">
-        <v>6.440001135533453</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>100.2504163484946</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.375729051175003</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>25.60720851682374</v>
       </c>
       <c r="O2">
-        <v>30.03969870276772</v>
+        <v>26.47583119607308</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.04803695581921</v>
+        <v>6.742517956071294</v>
       </c>
       <c r="D3">
-        <v>6.115115094445437</v>
+        <v>2.54454869923853</v>
       </c>
       <c r="E3">
-        <v>9.701576491745596</v>
+        <v>9.33437704138613</v>
       </c>
       <c r="F3">
-        <v>36.83440991118942</v>
+        <v>31.15237811588842</v>
       </c>
       <c r="G3">
-        <v>1.972133024760336</v>
+        <v>2.027139498940883</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.6643322515609</v>
       </c>
       <c r="J3">
-        <v>6.288434226891905</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>92.51821673417314</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.205014744576031</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>24.22561817997339</v>
       </c>
       <c r="O3">
-        <v>26.71305894824951</v>
+        <v>24.95543956129678</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.64639150487778</v>
+        <v>6.598022771365919</v>
       </c>
       <c r="D4">
-        <v>5.808419394378425</v>
+        <v>2.566735158985936</v>
       </c>
       <c r="E4">
-        <v>9.410785835788298</v>
+        <v>9.091695752198531</v>
       </c>
       <c r="F4">
-        <v>34.73004321522318</v>
+        <v>29.86444327706107</v>
       </c>
       <c r="G4">
-        <v>1.993159003665041</v>
+        <v>2.033289453340985</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>23.74928046016316</v>
       </c>
       <c r="J4">
-        <v>6.210876811134941</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>87.65418000253133</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.10298909639589</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>23.33595077662917</v>
       </c>
       <c r="O4">
-        <v>24.83662790924165</v>
+        <v>23.99908465890469</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.480962568792934</v>
+        <v>6.539544515246737</v>
       </c>
       <c r="D5">
-        <v>5.684913161812066</v>
+        <v>2.576047099832225</v>
       </c>
       <c r="E5">
-        <v>9.292775277335542</v>
+        <v>8.992966693395839</v>
       </c>
       <c r="F5">
-        <v>34.01257457642122</v>
+        <v>29.33038164679806</v>
       </c>
       <c r="G5">
-        <v>2.001603760482726</v>
+        <v>2.035835386028984</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.3717431932385</v>
       </c>
       <c r="J5">
-        <v>6.182611389835708</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>85.63725182856263</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.062135146944374</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>22.96331756195408</v>
       </c>
       <c r="O5">
-        <v>24.11820601257716</v>
+        <v>23.60394991944605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.453368810383267</v>
+        <v>6.529860452356528</v>
       </c>
       <c r="D6">
-        <v>5.664470138035398</v>
+        <v>2.577609403488927</v>
       </c>
       <c r="E6">
-        <v>9.273201982721174</v>
+        <v>8.976586162615927</v>
       </c>
       <c r="F6">
-        <v>33.89683349408483</v>
+        <v>29.24115696860094</v>
       </c>
       <c r="G6">
-        <v>2.003000226277448</v>
+        <v>2.036260600094205</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.30878454221916</v>
       </c>
       <c r="J6">
-        <v>6.178105766090865</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>85.30541451610003</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.055395611714526</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>24.03661884660389</v>
+        <v>23.53802269477499</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.644168433187852</v>
+        <v>6.597232395472724</v>
       </c>
       <c r="D7">
-        <v>5.806748890209066</v>
+        <v>2.566859660149634</v>
       </c>
       <c r="E7">
-        <v>9.409192668310228</v>
+        <v>9.090363437654984</v>
       </c>
       <c r="F7">
-        <v>34.72013601255652</v>
+        <v>29.85727750828837</v>
       </c>
       <c r="G7">
-        <v>1.993273314638499</v>
+        <v>2.033323624824041</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>23.74420715592401</v>
       </c>
       <c r="J7">
-        <v>6.210482733370625</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>87.6271162070684</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.102435173799979</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>23.33096569062624</v>
       </c>
       <c r="O7">
-        <v>24.82666631072351</v>
+        <v>23.9937771433092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.472687058457923</v>
+        <v>6.89792955070099</v>
       </c>
       <c r="D8">
-        <v>6.450136250504368</v>
+        <v>2.521830637039852</v>
       </c>
       <c r="E8">
-        <v>10.01444395502016</v>
+        <v>9.593606256898033</v>
       </c>
       <c r="F8">
-        <v>39.42886007270193</v>
+        <v>32.49420439859414</v>
       </c>
       <c r="G8">
-        <v>1.949085678572217</v>
+        <v>2.020706720805383</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25.62391026894185</v>
       </c>
       <c r="J8">
-        <v>6.38413779945609</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>97.60385811906033</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.316298235674324</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>28.85429977054297</v>
+        <v>25.95650508091517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.117684655225107</v>
+        <v>7.496468853773372</v>
       </c>
       <c r="D9">
-        <v>7.859347955478125</v>
+        <v>2.443087669212551</v>
       </c>
       <c r="E9">
-        <v>11.25405588776185</v>
+        <v>10.57869404623431</v>
       </c>
       <c r="F9">
-        <v>51.24693462789763</v>
+        <v>37.37332067390101</v>
       </c>
       <c r="G9">
-        <v>1.851554621761389</v>
+        <v>1.997041118307225</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.142504115296</v>
       </c>
       <c r="J9">
-        <v>6.88481800895016</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>116.6975285036107</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.757136243814527</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>38.49312700926305</v>
+        <v>29.61481128328424</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.4757485230963</v>
+        <v>7.939499467524573</v>
       </c>
       <c r="D10">
-        <v>9.170993888325766</v>
+        <v>2.39224408945954</v>
       </c>
       <c r="E10">
-        <v>12.27419718894453</v>
+        <v>11.29791981403243</v>
       </c>
       <c r="F10">
-        <v>62.87311491865579</v>
+        <v>40.97324441208187</v>
       </c>
       <c r="G10">
-        <v>1.760496312422783</v>
+        <v>1.980140845967795</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>31.74043959037727</v>
       </c>
       <c r="J10">
-        <v>7.930373312042008</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>131.6139408149465</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.093523370031001</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>47.88950957782825</v>
+        <v>32.42109718689578</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.21243075216937</v>
+        <v>8.141537843644816</v>
       </c>
       <c r="D11">
-        <v>9.94602332434112</v>
+        <v>2.370997704225294</v>
       </c>
       <c r="E11">
-        <v>12.81248938813628</v>
+        <v>11.62386453857719</v>
       </c>
       <c r="F11">
-        <v>69.83718524772789</v>
+        <v>42.55819352093258</v>
       </c>
       <c r="G11">
-        <v>1.706784650305063</v>
+        <v>1.972515154110763</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>32.97642877780461</v>
       </c>
       <c r="J11">
-        <v>8.517693757840822</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>139.3164375790575</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.249289488690461</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>31.41016321374476</v>
       </c>
       <c r="O11">
-        <v>53.5031458863792</v>
+        <v>33.69077775938239</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.53172395030463</v>
+        <v>8.218115115768938</v>
       </c>
       <c r="D12">
-        <v>10.29706134390904</v>
+        <v>2.363262674563688</v>
       </c>
       <c r="E12">
-        <v>13.04055357132599</v>
+        <v>11.74712316414974</v>
       </c>
       <c r="F12">
-        <v>72.99760818782323</v>
+        <v>43.15115804997691</v>
       </c>
       <c r="G12">
-        <v>1.682506481567624</v>
+        <v>1.969632370853348</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>33.43879841748704</v>
       </c>
       <c r="J12">
-        <v>8.774426266947714</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>142.5565774450413</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.308681643051812</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>56.04932376725267</v>
+        <v>34.16566946879971</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.46030779357554</v>
+        <v>8.201619610772719</v>
       </c>
       <c r="D13">
-        <v>10.21772132405843</v>
+        <v>2.364914010080922</v>
       </c>
       <c r="E13">
-        <v>12.98986110644197</v>
+        <v>11.72058434704167</v>
       </c>
       <c r="F13">
-        <v>72.28324250002449</v>
+        <v>43.0237671972426</v>
       </c>
       <c r="G13">
-        <v>1.687990488910533</v>
+        <v>1.970253082070853</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>33.33946581649526</v>
       </c>
       <c r="J13">
-        <v>8.716885191611077</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>141.8373618773487</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.295872060912092</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>31.67947945617568</v>
       </c>
       <c r="O13">
-        <v>55.47383898128911</v>
+        <v>34.06365018217969</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.23761164465274</v>
+        <v>8.147836466242694</v>
       </c>
       <c r="D14">
-        <v>9.973366110540075</v>
+        <v>2.370354855253197</v>
       </c>
       <c r="E14">
-        <v>12.8306046441589</v>
+        <v>11.63400835896865</v>
       </c>
       <c r="F14">
-        <v>70.08330594160574</v>
+        <v>42.60711948025558</v>
       </c>
       <c r="G14">
-        <v>1.704892313092166</v>
+        <v>1.972277912681569</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>33.01457999953886</v>
       </c>
       <c r="J14">
-        <v>8.537891885294512</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>139.5742377981777</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.254167449633206</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
-        <v>53.70145122823823</v>
+        <v>33.72996379102626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.10777447703743</v>
+        <v>8.114901994807159</v>
       </c>
       <c r="D15">
-        <v>9.832998770422098</v>
+        <v>2.373729302855084</v>
       </c>
       <c r="E15">
-        <v>12.7369767391254</v>
+        <v>11.58095666826854</v>
       </c>
       <c r="F15">
-        <v>68.81998804055893</v>
+        <v>42.35098217552471</v>
       </c>
       <c r="G15">
-        <v>1.714608974254235</v>
+        <v>1.973518688825756</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>32.81484903992558</v>
       </c>
       <c r="J15">
-        <v>8.43383534294489</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>138.2409300811896</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.2286757275024</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>31.28998244549471</v>
       </c>
       <c r="O15">
-        <v>52.68351978196529</v>
+        <v>33.52481209951192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.43131797879103</v>
+        <v>7.926305344257643</v>
       </c>
       <c r="D16">
-        <v>9.125745716344131</v>
+        <v>2.393673676703354</v>
       </c>
       <c r="E16">
-        <v>12.2412849982947</v>
+        <v>11.2765938044418</v>
       </c>
       <c r="F16">
-        <v>62.4677293992734</v>
+        <v>40.8686326621653</v>
       </c>
       <c r="G16">
-        <v>1.763635713255325</v>
+        <v>1.980640121221227</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>31.65885368222977</v>
       </c>
       <c r="J16">
-        <v>7.895167390285546</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>131.1399663201843</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.083399692256203</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>47.56252283519157</v>
+        <v>32.33727528108409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.05558889283279</v>
+        <v>7.810729661449582</v>
       </c>
       <c r="D17">
-        <v>8.749626832760629</v>
+        <v>2.406416707706152</v>
       </c>
       <c r="E17">
-        <v>11.96136209512749</v>
+        <v>11.08955833271498</v>
       </c>
       <c r="F17">
-        <v>59.1064865273851</v>
+        <v>39.94599390373048</v>
       </c>
       <c r="G17">
-        <v>1.789741439970495</v>
+        <v>1.985022117599146</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.93925266131496</v>
       </c>
       <c r="J17">
-        <v>7.598396752566969</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>127.0918302462749</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.994985414378675</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
-        <v>44.84997931244346</v>
+        <v>31.59788156909038</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.848755141233614</v>
+        <v>7.744300084828165</v>
       </c>
       <c r="D18">
-        <v>8.547450393434337</v>
+        <v>2.413920504613047</v>
       </c>
       <c r="E18">
-        <v>11.80622484309</v>
+        <v>10.98186221696202</v>
       </c>
       <c r="F18">
-        <v>57.30754462383504</v>
+        <v>39.41033248010766</v>
       </c>
       <c r="G18">
-        <v>1.803779134036677</v>
+        <v>1.987548663357892</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>30.53816046692334</v>
       </c>
       <c r="J18">
-        <v>7.435740315969127</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>124.8339729126036</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.944388573894972</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>29.56404287680425</v>
       </c>
       <c r="O18">
-        <v>43.39702571667996</v>
+        <v>31.16850700833855</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.779999675044941</v>
+        <v>7.721816463889125</v>
       </c>
       <c r="D19">
-        <v>8.480992093650691</v>
+        <v>2.416490032517072</v>
       </c>
       <c r="E19">
-        <v>11.75451908084255</v>
+        <v>10.94537803050938</v>
       </c>
       <c r="F19">
-        <v>56.71768347567959</v>
+        <v>39.22810127290544</v>
       </c>
       <c r="G19">
-        <v>1.808393900630885</v>
+        <v>1.988405278145454</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>30.41272120724739</v>
       </c>
       <c r="J19">
-        <v>7.381780051852983</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>124.07895899104</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.927301235594211</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>42.92039273887632</v>
+        <v>31.02241633686197</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.09454291248527</v>
+        <v>7.823028140783863</v>
       </c>
       <c r="D20">
-        <v>8.788086300099797</v>
+        <v>2.405041886107716</v>
       </c>
       <c r="E20">
-        <v>11.99050449472066</v>
+        <v>11.10948084216596</v>
       </c>
       <c r="F20">
-        <v>59.44938711798923</v>
+        <v>40.04472389977368</v>
       </c>
       <c r="G20">
-        <v>1.787071380966471</v>
+        <v>1.984555039241088</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>31.01625975483942</v>
       </c>
       <c r="J20">
-        <v>7.629086639164948</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>127.5147709823405</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.004370639762607</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>45.12682586530232</v>
+        <v>31.67701302408539</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.30154048456752</v>
+        <v>8.163631933777179</v>
       </c>
       <c r="D21">
-        <v>10.04304404961044</v>
+        <v>2.368747957655661</v>
       </c>
       <c r="E21">
-        <v>12.87649936672894</v>
+        <v>11.65944223319229</v>
       </c>
       <c r="F21">
-        <v>70.71055428241819</v>
+        <v>42.72969177649698</v>
       </c>
       <c r="G21">
-        <v>1.700070988352248</v>
+        <v>1.971683072776782</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>33.11015815582994</v>
       </c>
       <c r="J21">
-        <v>8.589207936810565</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>140.2270193340277</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.26640590516007</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>54.20682286068767</v>
+        <v>33.82813312985022</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.40102654003064</v>
+        <v>8.38665219846443</v>
       </c>
       <c r="D22">
-        <v>11.30265839212006</v>
+        <v>2.346863050535365</v>
       </c>
       <c r="E22">
-        <v>13.64033043566113</v>
+        <v>12.01790823363339</v>
       </c>
       <c r="F22">
-        <v>82.04132161323557</v>
+        <v>44.44260567459269</v>
       </c>
       <c r="G22">
-        <v>1.613193135014553</v>
+        <v>1.963296790867733</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>34.44575842951134</v>
       </c>
       <c r="J22">
-        <v>9.480493994264645</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>151.0340429743062</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.440047135140568</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>32.49403281050594</v>
       </c>
       <c r="O22">
-        <v>63.33455659259598</v>
+        <v>35.1997646890264</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.75669125540458</v>
+        <v>8.267580947911499</v>
       </c>
       <c r="D23">
-        <v>10.55015630201978</v>
+        <v>2.358359905978996</v>
       </c>
       <c r="E23">
-        <v>13.19894633472688</v>
+        <v>11.82666697240775</v>
       </c>
       <c r="F23">
-        <v>75.27616552386282</v>
+        <v>43.53208390780862</v>
       </c>
       <c r="G23">
-        <v>1.665026175176075</v>
+        <v>1.967771782505209</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>33.73581928278902</v>
       </c>
       <c r="J23">
-        <v>8.956137494532074</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>144.8006350633541</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.347146033655551</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>57.88481294473436</v>
+        <v>34.4707130047241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.07690431752577</v>
+        <v>7.81746794674159</v>
       </c>
       <c r="D24">
-        <v>8.770656498744835</v>
+        <v>2.405662892478329</v>
       </c>
       <c r="E24">
-        <v>11.97731181564744</v>
+        <v>11.10047439584982</v>
       </c>
       <c r="F24">
-        <v>59.29395939154092</v>
+        <v>40.00010436617932</v>
       </c>
       <c r="G24">
-        <v>1.788281435310652</v>
+        <v>1.984766182398586</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.98145767884682</v>
       </c>
       <c r="J24">
-        <v>7.615187875654684</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>127.3233522639276</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.00012685222104</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
-        <v>45.00134255113129</v>
+        <v>31.6412510700204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.661065093481289</v>
+        <v>7.33385573635217</v>
       </c>
       <c r="D25">
-        <v>7.449583113355061</v>
+        <v>2.463261095033354</v>
       </c>
       <c r="E25">
-        <v>10.90795301754771</v>
+        <v>10.31282569125756</v>
       </c>
       <c r="F25">
-        <v>47.70423101415778</v>
+        <v>36.07372037043673</v>
       </c>
       <c r="G25">
-        <v>1.879979802572534</v>
+        <v>2.003344486004006</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>28.2096224270396</v>
       </c>
       <c r="J25">
-        <v>6.725549234682942</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>111.5006972551557</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.635661639071564</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>35.61746032800471</v>
+        <v>28.64649795472396</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.98010460391251</v>
+        <v>9.62847638162277</v>
       </c>
       <c r="D2">
-        <v>2.510242307889043</v>
+        <v>4.889477451973894</v>
       </c>
       <c r="E2">
-        <v>9.730014236902068</v>
+        <v>12.5372904526273</v>
       </c>
       <c r="F2">
-        <v>33.18803678465115</v>
+        <v>30.06386191256673</v>
       </c>
       <c r="G2">
-        <v>2.017366678337416</v>
+        <v>3.626191705832189</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.12234104837356</v>
+        <v>26.77851708482337</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.375729051175003</v>
+        <v>9.461361224737427</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>26.47583119607308</v>
+        <v>26.27224278197653</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.742517956071294</v>
+        <v>9.616662997744289</v>
       </c>
       <c r="D3">
-        <v>2.54454869923853</v>
+        <v>4.904063324356646</v>
       </c>
       <c r="E3">
-        <v>9.33437704138613</v>
+        <v>12.50587338210526</v>
       </c>
       <c r="F3">
-        <v>31.15237811588842</v>
+        <v>29.61645569846443</v>
       </c>
       <c r="G3">
-        <v>2.027139498940883</v>
+        <v>3.629809073164635</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.6643322515609</v>
+        <v>26.52703300356168</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.205014744576031</v>
+        <v>9.46215684784668</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>24.95543956129678</v>
+        <v>25.99078460847669</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.598022771365919</v>
+        <v>9.611393688489017</v>
       </c>
       <c r="D4">
-        <v>2.566735158985936</v>
+        <v>4.913540692466086</v>
       </c>
       <c r="E4">
-        <v>9.091695752198531</v>
+        <v>12.48947518498017</v>
       </c>
       <c r="F4">
-        <v>29.86444327706107</v>
+        <v>29.34776987288977</v>
       </c>
       <c r="G4">
-        <v>2.033289453340985</v>
+        <v>3.632147283375156</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.74928046016316</v>
+        <v>26.37914352774852</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.10298909639589</v>
+        <v>9.464457197895866</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>23.99908465890469</v>
+        <v>25.82415151807121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.539544515246737</v>
+        <v>9.609746457278018</v>
       </c>
       <c r="D5">
-        <v>2.576047099832225</v>
+        <v>4.917534230268339</v>
       </c>
       <c r="E5">
-        <v>8.992966693395839</v>
+        <v>12.48352350784842</v>
       </c>
       <c r="F5">
-        <v>29.33038164679806</v>
+        <v>29.23993525346501</v>
       </c>
       <c r="G5">
-        <v>2.035835386028984</v>
+        <v>3.633129687416996</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.3717431932385</v>
+        <v>26.32057785934654</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.062135146944374</v>
+        <v>9.465850124014667</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>23.60394991944605</v>
+        <v>25.75787497046569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.529860452356528</v>
+        <v>9.609503163802685</v>
       </c>
       <c r="D6">
-        <v>2.577609403488927</v>
+        <v>4.918205300668256</v>
       </c>
       <c r="E6">
-        <v>8.976586162615927</v>
+        <v>12.4825794579916</v>
       </c>
       <c r="F6">
-        <v>29.24115696860094</v>
+        <v>29.22213357267411</v>
       </c>
       <c r="G6">
-        <v>2.036260600094205</v>
+        <v>3.633294603725532</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.30878454221916</v>
+        <v>26.3109574692815</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.055395611714526</v>
+        <v>9.466108923981695</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>23.53802269477499</v>
+        <v>25.74697017307625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.597232395472724</v>
+        <v>9.611369447426789</v>
       </c>
       <c r="D7">
-        <v>2.566859660149634</v>
+        <v>4.913594018198795</v>
       </c>
       <c r="E7">
-        <v>9.090363437654984</v>
+        <v>12.48939195584017</v>
       </c>
       <c r="F7">
-        <v>29.85727750828837</v>
+        <v>29.34630868273597</v>
       </c>
       <c r="G7">
-        <v>2.033323624824041</v>
+        <v>3.632160412569012</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.74420715592401</v>
+        <v>26.37834672866202</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.102435173799979</v>
+        <v>9.46447413928604</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>23.9937771433092</v>
+        <v>25.82325100505323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.89792955070099</v>
+        <v>9.623992090321494</v>
       </c>
       <c r="D8">
-        <v>2.521830637039852</v>
+        <v>4.894398571535359</v>
       </c>
       <c r="E8">
-        <v>9.593606256898033</v>
+        <v>12.52585992806409</v>
       </c>
       <c r="F8">
-        <v>32.49420439859414</v>
+        <v>29.90843246479154</v>
       </c>
       <c r="G8">
-        <v>2.020706720805383</v>
+        <v>3.627414729997339</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.62391026894185</v>
+        <v>26.69048884695097</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.316298235674324</v>
+        <v>9.461259512296644</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>25.95650508091517</v>
+        <v>26.17395749425654</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.496468853773372</v>
+        <v>9.664425100048867</v>
       </c>
       <c r="D9">
-        <v>2.443087669212551</v>
+        <v>4.860882506918918</v>
       </c>
       <c r="E9">
-        <v>10.57869404623431</v>
+        <v>12.62013471018199</v>
       </c>
       <c r="F9">
-        <v>37.37332067390101</v>
+        <v>31.0521652329615</v>
       </c>
       <c r="G9">
-        <v>1.997041118307225</v>
+        <v>3.619032815269698</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.142504115296</v>
+        <v>27.35153731079814</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.757136243814527</v>
+        <v>9.469328790192943</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>29.61481128328424</v>
+        <v>26.90738542557753</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.939499467524573</v>
+        <v>9.703584947228398</v>
       </c>
       <c r="D10">
-        <v>2.39224408945954</v>
+        <v>4.83875671749872</v>
       </c>
       <c r="E10">
-        <v>11.29791981403243</v>
+        <v>12.70298026706912</v>
       </c>
       <c r="F10">
-        <v>40.97324441208187</v>
+        <v>31.90909069558782</v>
       </c>
       <c r="G10">
-        <v>1.980140845967795</v>
+        <v>3.613431099136563</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.74043959037727</v>
+        <v>27.86307116331835</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.093523370031001</v>
+        <v>9.484005659677701</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>32.42109718689578</v>
+        <v>27.46939495718158</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.141537843644816</v>
+        <v>9.723422804829298</v>
       </c>
       <c r="D11">
-        <v>2.370997704225294</v>
+        <v>4.829230182980272</v>
       </c>
       <c r="E11">
-        <v>11.62386453857719</v>
+        <v>12.74354063641795</v>
       </c>
       <c r="F11">
-        <v>42.55819352093258</v>
+        <v>32.30072432240137</v>
       </c>
       <c r="G11">
-        <v>1.972515154110763</v>
+        <v>3.611002066040073</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.97642877780461</v>
+        <v>28.10050732186091</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.249289488690461</v>
+        <v>9.492575029731363</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>33.69077775938239</v>
+        <v>27.7290626869194</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.218115115768938</v>
+        <v>9.731222780033178</v>
       </c>
       <c r="D12">
-        <v>2.363262674563688</v>
+        <v>4.825699937287694</v>
       </c>
       <c r="E12">
-        <v>11.74712316414974</v>
+        <v>12.75930534164641</v>
       </c>
       <c r="F12">
-        <v>43.15115804997691</v>
+        <v>32.44913868872323</v>
       </c>
       <c r="G12">
-        <v>1.969632370853348</v>
+        <v>3.610099282081451</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.43879841748704</v>
+        <v>28.19102285860927</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.308681643051812</v>
+        <v>9.496091200808445</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>34.16566946879971</v>
+        <v>27.82788060060437</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.201619610772719</v>
+        <v>9.72953017036326</v>
       </c>
       <c r="D13">
-        <v>2.364914010080922</v>
+        <v>4.82645680645001</v>
       </c>
       <c r="E13">
-        <v>11.72058434704167</v>
+        <v>12.75589223281854</v>
       </c>
       <c r="F13">
-        <v>43.0237671972426</v>
+        <v>32.41717239182119</v>
       </c>
       <c r="G13">
-        <v>1.970253082070853</v>
+        <v>3.610292956648079</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.33946581649526</v>
+        <v>28.17150311226839</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.295872060912092</v>
+        <v>9.495321890515607</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>34.06365018217969</v>
+        <v>27.80657812986101</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.147836466242694</v>
+        <v>9.724058765028046</v>
       </c>
       <c r="D14">
-        <v>2.370354855253197</v>
+        <v>4.828938200548297</v>
       </c>
       <c r="E14">
-        <v>11.63400835896865</v>
+        <v>12.74482953108404</v>
       </c>
       <c r="F14">
-        <v>42.60711948025558</v>
+        <v>32.3129330752967</v>
       </c>
       <c r="G14">
-        <v>1.972277912681569</v>
+        <v>3.610927452589677</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.01457999953886</v>
+        <v>28.10794243819736</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.254167449633206</v>
+        <v>9.492858880012459</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>33.72996379102626</v>
+        <v>27.73718323621465</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.114901994807159</v>
+        <v>9.720744751070228</v>
       </c>
       <c r="D15">
-        <v>2.373729302855084</v>
+        <v>4.830468179931631</v>
       </c>
       <c r="E15">
-        <v>11.58095666826854</v>
+        <v>12.7381058548877</v>
       </c>
       <c r="F15">
-        <v>42.35098217552471</v>
+        <v>32.24909359555794</v>
       </c>
       <c r="G15">
-        <v>1.973518688825756</v>
+        <v>3.611318315440208</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.81484903992558</v>
+        <v>28.06908598802562</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.2286757275024</v>
+        <v>9.491385490258972</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>33.52481209951192</v>
+        <v>27.69473769911087</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.926305344257643</v>
+        <v>9.702328954494435</v>
       </c>
       <c r="D16">
-        <v>2.393673676703354</v>
+        <v>4.839390119283604</v>
       </c>
       <c r="E16">
-        <v>11.2765938044418</v>
+        <v>12.70038671921722</v>
       </c>
       <c r="F16">
-        <v>40.8686326621653</v>
+        <v>31.88352013745232</v>
       </c>
       <c r="G16">
-        <v>1.980640121221227</v>
+        <v>3.613592232106549</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.65885368222977</v>
+        <v>27.84764285588846</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.083399692256203</v>
+        <v>9.483483634650071</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>32.33727528108409</v>
+        <v>27.45249809503873</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.810729661449582</v>
+        <v>9.691547637645566</v>
       </c>
       <c r="D17">
-        <v>2.406416707706152</v>
+        <v>4.845001240094928</v>
       </c>
       <c r="E17">
-        <v>11.08955833271498</v>
+        <v>12.67797786151845</v>
       </c>
       <c r="F17">
-        <v>39.94599390373048</v>
+        <v>31.6596095785052</v>
       </c>
       <c r="G17">
-        <v>1.985022117599146</v>
+        <v>3.615017665516506</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.93925266131496</v>
+        <v>27.71295294107361</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.994985414378675</v>
+        <v>9.479120216899572</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>31.59788156909038</v>
+        <v>27.30485499789356</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.744300084828165</v>
+        <v>9.685537218517799</v>
       </c>
       <c r="D18">
-        <v>2.413920504613047</v>
+        <v>4.848279315373632</v>
       </c>
       <c r="E18">
-        <v>10.98186221696202</v>
+        <v>12.66535985921963</v>
       </c>
       <c r="F18">
-        <v>39.41033248010766</v>
+        <v>31.53100161992067</v>
       </c>
       <c r="G18">
-        <v>1.987548663357892</v>
+        <v>3.615848764499717</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.53816046692334</v>
+        <v>27.63593341792934</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.944388573894972</v>
+        <v>9.476788728982751</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>31.16850700833855</v>
+        <v>27.22031705978937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.721816463889125</v>
+        <v>9.683535040637615</v>
       </c>
       <c r="D19">
-        <v>2.416490032517072</v>
+        <v>4.84939793065706</v>
       </c>
       <c r="E19">
-        <v>10.94537803050938</v>
+        <v>12.66113438942691</v>
       </c>
       <c r="F19">
-        <v>39.22810127290544</v>
+        <v>31.48749262216938</v>
       </c>
       <c r="G19">
-        <v>1.988405278145454</v>
+        <v>3.616132091852769</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.41272120724739</v>
+        <v>27.60993566520034</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.927301235594211</v>
+        <v>9.476029967427641</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>31.02241633686197</v>
+        <v>27.19176236151834</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.823028140783863</v>
+        <v>9.692675611766626</v>
       </c>
       <c r="D20">
-        <v>2.405041886107716</v>
+        <v>4.844398680275358</v>
       </c>
       <c r="E20">
-        <v>11.10948084216596</v>
+        <v>12.68033533196438</v>
       </c>
       <c r="F20">
-        <v>40.04472389977368</v>
+        <v>31.68342776180243</v>
       </c>
       <c r="G20">
-        <v>1.984555039241088</v>
+        <v>3.614864764470275</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.01625975483942</v>
+        <v>27.72724484181598</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.004370639762607</v>
+        <v>9.479566270463517</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484619</v>
       </c>
       <c r="O20">
-        <v>31.67701302408539</v>
+        <v>27.32053291759324</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.163631933777179</v>
+        <v>9.725658065717594</v>
       </c>
       <c r="D21">
-        <v>2.368747957655661</v>
+        <v>4.828207260086014</v>
       </c>
       <c r="E21">
-        <v>11.65944223319229</v>
+        <v>12.748067978664</v>
       </c>
       <c r="F21">
-        <v>42.72969177649698</v>
+        <v>32.34354884325683</v>
       </c>
       <c r="G21">
-        <v>1.971683072776782</v>
+        <v>3.610740624174252</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.11015815582994</v>
+        <v>28.12659598749733</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.26640590516007</v>
+        <v>9.493574976728615</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554066</v>
       </c>
       <c r="O21">
-        <v>33.82813312985022</v>
+        <v>27.75755367790951</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.38665219846443</v>
+        <v>9.748889841475638</v>
       </c>
       <c r="D22">
-        <v>2.346863050535365</v>
+        <v>4.818075393189917</v>
       </c>
       <c r="E22">
-        <v>12.01790823363339</v>
+        <v>12.79469392360499</v>
       </c>
       <c r="F22">
-        <v>44.44260567459269</v>
+        <v>32.77555802606521</v>
       </c>
       <c r="G22">
-        <v>1.963296790867733</v>
+        <v>3.608144523164056</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.44575842951134</v>
+        <v>28.39107715453967</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.440047135140568</v>
+        <v>9.504310230473457</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>35.1997646890264</v>
+        <v>28.04597191127845</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.267580947911499</v>
+        <v>9.73633841889208</v>
       </c>
       <c r="D23">
-        <v>2.358359905978996</v>
+        <v>4.823441836119838</v>
       </c>
       <c r="E23">
-        <v>11.82666697240775</v>
+        <v>12.76959570744089</v>
       </c>
       <c r="F23">
-        <v>43.53208390780862</v>
+        <v>32.54498168427385</v>
       </c>
       <c r="G23">
-        <v>1.967771782505209</v>
+        <v>3.609521063088993</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.73581928278902</v>
+        <v>28.24962569373607</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.347146033655551</v>
+        <v>9.498436476824001</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>34.4707130047241</v>
+        <v>27.89181073488903</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.81746794674159</v>
+        <v>9.692165069142856</v>
       </c>
       <c r="D24">
-        <v>2.405662892478329</v>
+        <v>4.844670935041291</v>
       </c>
       <c r="E24">
-        <v>11.10047439584982</v>
+        <v>12.67926869310599</v>
       </c>
       <c r="F24">
-        <v>40.00010436617932</v>
+        <v>31.67265917207502</v>
       </c>
       <c r="G24">
-        <v>1.984766182398586</v>
+        <v>3.61493385489731</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.98145767884682</v>
+        <v>27.72078217329675</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.00012685222104</v>
+        <v>9.479364057936088</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>31.6412510700204</v>
+        <v>27.31344385160817</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.33385573635217</v>
+        <v>9.651817675125148</v>
       </c>
       <c r="D25">
-        <v>2.463261095033354</v>
+        <v>4.86950954277091</v>
       </c>
       <c r="E25">
-        <v>10.31282569125756</v>
+        <v>12.59222161091895</v>
       </c>
       <c r="F25">
-        <v>36.07372037043673</v>
+        <v>30.73921294634416</v>
       </c>
       <c r="G25">
-        <v>2.003344486004006</v>
+        <v>3.621202115862118</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.2096224270396</v>
+        <v>27.16786770945205</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.635661639071564</v>
+        <v>9.465607692995313</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>28.64649795472396</v>
+        <v>26.70455883351522</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.62847638162277</v>
+        <v>6.980104603912475</v>
       </c>
       <c r="D2">
-        <v>4.889477451973894</v>
+        <v>2.510242307889139</v>
       </c>
       <c r="E2">
-        <v>12.5372904526273</v>
+        <v>9.730014236902134</v>
       </c>
       <c r="F2">
-        <v>30.06386191256673</v>
+        <v>33.18803678465109</v>
       </c>
       <c r="G2">
-        <v>3.626191705832189</v>
+        <v>2.01736667833755</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.77851708482337</v>
+        <v>26.12234104837354</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.461361224737427</v>
+        <v>6.375729051175042</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>26.27224278197653</v>
+        <v>26.47583119607305</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.616662997744289</v>
+        <v>6.742517956071321</v>
       </c>
       <c r="D3">
-        <v>4.904063324356646</v>
+        <v>2.544548699238353</v>
       </c>
       <c r="E3">
-        <v>12.50587338210526</v>
+        <v>9.334377041386109</v>
       </c>
       <c r="F3">
-        <v>29.61645569846443</v>
+        <v>31.15237811588842</v>
       </c>
       <c r="G3">
-        <v>3.629809073164635</v>
+        <v>2.02713949894075</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.52703300356168</v>
+        <v>24.66433225156086</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.46215684784668</v>
+        <v>6.20501474457599</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>25.99078460847669</v>
+        <v>24.95543956129675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.611393688489017</v>
+        <v>6.598022771365936</v>
       </c>
       <c r="D4">
-        <v>4.913540692466086</v>
+        <v>2.56673515898588</v>
       </c>
       <c r="E4">
-        <v>12.48947518498017</v>
+        <v>9.091695752198527</v>
       </c>
       <c r="F4">
-        <v>29.34776987288977</v>
+        <v>29.86444327706107</v>
       </c>
       <c r="G4">
-        <v>3.632147283375156</v>
+        <v>2.033289453340988</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.37914352774852</v>
+        <v>23.74928046016316</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.464457197895866</v>
+        <v>6.102989096395872</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>25.82415151807121</v>
+        <v>23.99908465890467</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.609746457278018</v>
+        <v>6.53954451524675</v>
       </c>
       <c r="D5">
-        <v>4.917534230268339</v>
+        <v>2.576047099832356</v>
       </c>
       <c r="E5">
-        <v>12.48352350784842</v>
+        <v>8.992966693395891</v>
       </c>
       <c r="F5">
-        <v>29.23993525346501</v>
+        <v>29.330381646798</v>
       </c>
       <c r="G5">
-        <v>3.633129687416996</v>
+        <v>2.035835386028717</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.32057785934654</v>
+        <v>23.37174319323846</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.465850124014667</v>
+        <v>6.062135146944417</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>25.75787497046569</v>
+        <v>23.603949919446</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.609503163802685</v>
+        <v>6.529860452356388</v>
       </c>
       <c r="D6">
-        <v>4.918205300668256</v>
+        <v>2.577609403489039</v>
       </c>
       <c r="E6">
-        <v>12.4825794579916</v>
+        <v>8.976586162615856</v>
       </c>
       <c r="F6">
-        <v>29.22213357267411</v>
+        <v>29.24115696860089</v>
       </c>
       <c r="G6">
-        <v>3.633294603725532</v>
+        <v>2.036260600094206</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.3109574692815</v>
+        <v>23.30878454221912</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.466108923981695</v>
+        <v>6.055395611714499</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>25.74697017307625</v>
+        <v>23.53802269477494</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.611369447426789</v>
+        <v>6.597232395472751</v>
       </c>
       <c r="D7">
-        <v>4.913594018198795</v>
+        <v>2.566859660149694</v>
       </c>
       <c r="E7">
-        <v>12.48939195584017</v>
+        <v>9.090363437654972</v>
       </c>
       <c r="F7">
-        <v>29.34630868273597</v>
+        <v>29.85727750828836</v>
       </c>
       <c r="G7">
-        <v>3.632160412569012</v>
+        <v>2.033323624824178</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.37834672866202</v>
+        <v>23.74420715592403</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.46447413928604</v>
+        <v>6.102435173799985</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>25.82325100505323</v>
+        <v>23.9937771433092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.623992090321494</v>
+        <v>6.897929550700874</v>
       </c>
       <c r="D8">
-        <v>4.894398571535359</v>
+        <v>2.521830637039839</v>
       </c>
       <c r="E8">
-        <v>12.52585992806409</v>
+        <v>9.59360625689801</v>
       </c>
       <c r="F8">
-        <v>29.90843246479154</v>
+        <v>32.49420439859411</v>
       </c>
       <c r="G8">
-        <v>3.627414729997339</v>
+        <v>2.020706720805384</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.69048884695097</v>
+        <v>25.6239102689418</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.461259512296644</v>
+        <v>6.316298235674345</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>26.17395749425654</v>
+        <v>25.95650508091514</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.664425100048867</v>
+        <v>7.496468853773422</v>
       </c>
       <c r="D9">
-        <v>4.860882506918918</v>
+        <v>2.443087669212581</v>
       </c>
       <c r="E9">
-        <v>12.62013471018199</v>
+        <v>10.57869404623428</v>
       </c>
       <c r="F9">
-        <v>31.0521652329615</v>
+        <v>37.37332067390094</v>
       </c>
       <c r="G9">
-        <v>3.619032815269698</v>
+        <v>1.99704111830696</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.35153731079814</v>
+        <v>29.14250411529598</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.469328790192943</v>
+        <v>6.75713624381449</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380644</v>
       </c>
       <c r="O9">
-        <v>26.90738542557753</v>
+        <v>29.61481128328423</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.703584947228398</v>
+        <v>7.93949946752465</v>
       </c>
       <c r="D10">
-        <v>4.83875671749872</v>
+        <v>2.392244089459629</v>
       </c>
       <c r="E10">
-        <v>12.70298026706912</v>
+        <v>11.29791981403244</v>
       </c>
       <c r="F10">
-        <v>31.90909069558782</v>
+        <v>40.97324441208185</v>
       </c>
       <c r="G10">
-        <v>3.613431099136563</v>
+        <v>1.980140845967926</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.86307116331835</v>
+        <v>31.74043959037722</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.484005659677701</v>
+        <v>7.093523370030994</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
-        <v>27.46939495718158</v>
+        <v>32.42109718689573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.723422804829298</v>
+        <v>8.141537843644903</v>
       </c>
       <c r="D11">
-        <v>4.829230182980272</v>
+        <v>2.370997704225294</v>
       </c>
       <c r="E11">
-        <v>12.74354063641795</v>
+        <v>11.62386453857718</v>
       </c>
       <c r="F11">
-        <v>32.30072432240137</v>
+        <v>42.55819352093248</v>
       </c>
       <c r="G11">
-        <v>3.611002066040073</v>
+        <v>1.97251515411063</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.10050732186091</v>
+        <v>32.97642877780454</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.492575029731363</v>
+        <v>7.24928948869043</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374475</v>
       </c>
       <c r="O11">
-        <v>27.7290626869194</v>
+        <v>33.69077775938229</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.731222780033178</v>
+        <v>8.218115115768954</v>
       </c>
       <c r="D12">
-        <v>4.825699937287694</v>
+        <v>2.363262674563677</v>
       </c>
       <c r="E12">
-        <v>12.75930534164641</v>
+        <v>11.74712316414974</v>
       </c>
       <c r="F12">
-        <v>32.44913868872323</v>
+        <v>43.15115804997682</v>
       </c>
       <c r="G12">
-        <v>3.610099282081451</v>
+        <v>1.969632370853213</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.19102285860927</v>
+        <v>33.43879841748695</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.496091200808445</v>
+        <v>7.308681643051809</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>27.82788060060437</v>
+        <v>34.16566946879963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.72953017036326</v>
+        <v>8.201619610772701</v>
       </c>
       <c r="D13">
-        <v>4.82645680645001</v>
+        <v>2.364914010080897</v>
       </c>
       <c r="E13">
-        <v>12.75589223281854</v>
+        <v>11.72058434704168</v>
       </c>
       <c r="F13">
-        <v>32.41717239182119</v>
+        <v>43.02376719724274</v>
       </c>
       <c r="G13">
-        <v>3.610292956648079</v>
+        <v>1.97025308207072</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.17150311226839</v>
+        <v>33.33946581649542</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.495321890515607</v>
+        <v>7.295872060912082</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>27.80657812986101</v>
+        <v>34.06365018217982</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.724058765028046</v>
+        <v>8.147836466242712</v>
       </c>
       <c r="D14">
-        <v>4.828938200548297</v>
+        <v>2.370354855253217</v>
       </c>
       <c r="E14">
-        <v>12.74482953108404</v>
+        <v>11.63400835896865</v>
       </c>
       <c r="F14">
-        <v>32.3129330752967</v>
+        <v>42.6071194802558</v>
       </c>
       <c r="G14">
-        <v>3.610927452589677</v>
+        <v>1.972277912681573</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.10794243819736</v>
+        <v>33.01457999953901</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.492858880012459</v>
+        <v>7.254167449633181</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>27.73718323621465</v>
+        <v>33.72996379102642</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.720744751070228</v>
+        <v>8.114901994807207</v>
       </c>
       <c r="D15">
-        <v>4.830468179931631</v>
+        <v>2.373729302855181</v>
       </c>
       <c r="E15">
-        <v>12.7381058548877</v>
+        <v>11.58095666826855</v>
       </c>
       <c r="F15">
-        <v>32.24909359555794</v>
+        <v>42.35098217552476</v>
       </c>
       <c r="G15">
-        <v>3.611318315440208</v>
+        <v>1.973518688825762</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.06908598802562</v>
+        <v>32.81484903992563</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.491385490258972</v>
+        <v>7.22867572750237</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>27.69473769911087</v>
+        <v>33.52481209951195</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.702328954494435</v>
+        <v>7.926305344257548</v>
       </c>
       <c r="D16">
-        <v>4.839390119283604</v>
+        <v>2.393673676703449</v>
       </c>
       <c r="E16">
-        <v>12.70038671921722</v>
+        <v>11.27659380444179</v>
       </c>
       <c r="F16">
-        <v>31.88352013745232</v>
+        <v>40.86863266216544</v>
       </c>
       <c r="G16">
-        <v>3.613592232106549</v>
+        <v>1.980640121221097</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.84764285588846</v>
+        <v>31.65885368222984</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.483483634650071</v>
+        <v>7.083399692256215</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>27.45249809503873</v>
+        <v>32.33727528108417</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.691547637645566</v>
+        <v>7.810729661449686</v>
       </c>
       <c r="D17">
-        <v>4.845001240094928</v>
+        <v>2.406416707706111</v>
       </c>
       <c r="E17">
-        <v>12.67797786151845</v>
+        <v>11.08955833271499</v>
       </c>
       <c r="F17">
-        <v>31.6596095785052</v>
+        <v>39.94599390373045</v>
       </c>
       <c r="G17">
-        <v>3.615017665516506</v>
+        <v>1.985022117599544</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.71295294107361</v>
+        <v>30.93925266131493</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.479120216899572</v>
+        <v>6.994985414378646</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>27.30485499789356</v>
+        <v>31.59788156909037</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.685537218517799</v>
+        <v>7.744300084828137</v>
       </c>
       <c r="D18">
-        <v>4.848279315373632</v>
+        <v>2.413920504613001</v>
       </c>
       <c r="E18">
-        <v>12.66535985921963</v>
+        <v>10.98186221696201</v>
       </c>
       <c r="F18">
-        <v>31.53100161992067</v>
+        <v>39.41033248010769</v>
       </c>
       <c r="G18">
-        <v>3.615848764499717</v>
+        <v>1.987548663357624</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.63593341792934</v>
+        <v>30.53816046692337</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.476788728982751</v>
+        <v>6.944388573894946</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>27.22031705978937</v>
+        <v>31.16850700833857</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.683535040637615</v>
+        <v>7.721816463889171</v>
       </c>
       <c r="D19">
-        <v>4.84939793065706</v>
+        <v>2.41649003251713</v>
       </c>
       <c r="E19">
-        <v>12.66113438942691</v>
+        <v>10.94537803050938</v>
       </c>
       <c r="F19">
-        <v>31.48749262216938</v>
+        <v>39.22810127290543</v>
       </c>
       <c r="G19">
-        <v>3.616132091852769</v>
+        <v>1.988405278145456</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.60993566520034</v>
+        <v>30.41272120724742</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.476029967427641</v>
+        <v>6.927301235594217</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>27.19176236151834</v>
+        <v>31.02241633686195</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.692675611766626</v>
+        <v>7.823028140783879</v>
       </c>
       <c r="D20">
-        <v>4.844398680275358</v>
+        <v>2.405041886107722</v>
       </c>
       <c r="E20">
-        <v>12.68033533196438</v>
+        <v>11.10948084216597</v>
       </c>
       <c r="F20">
-        <v>31.68342776180243</v>
+        <v>40.04472389977371</v>
       </c>
       <c r="G20">
-        <v>3.614864764470275</v>
+        <v>1.98455503924122</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.72724484181598</v>
+        <v>31.01625975483946</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.479566270463517</v>
+        <v>7.00437063976263</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484619</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>27.32053291759324</v>
+        <v>31.67701302408542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.725658065717594</v>
+        <v>8.16363193377723</v>
       </c>
       <c r="D21">
-        <v>4.828207260086014</v>
+        <v>2.368747957655644</v>
       </c>
       <c r="E21">
-        <v>12.748067978664</v>
+        <v>11.65944223319228</v>
       </c>
       <c r="F21">
-        <v>32.34354884325683</v>
+        <v>42.7296917764969</v>
       </c>
       <c r="G21">
-        <v>3.610740624174252</v>
+        <v>1.971683072776782</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.12659598749733</v>
+        <v>33.11015815582986</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.493574976728615</v>
+        <v>7.266405905160058</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554066</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>27.75755367790951</v>
+        <v>33.82813312985015</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.748889841475638</v>
+        <v>8.386652198464445</v>
       </c>
       <c r="D22">
-        <v>4.818075393189917</v>
+        <v>2.346863050535452</v>
       </c>
       <c r="E22">
-        <v>12.79469392360499</v>
+        <v>12.01790823363339</v>
       </c>
       <c r="F22">
-        <v>32.77555802606521</v>
+        <v>44.44260567459266</v>
       </c>
       <c r="G22">
-        <v>3.608144523164056</v>
+        <v>1.963296790867601</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.39107715453967</v>
+        <v>34.44575842951133</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.504310230473457</v>
+        <v>7.440047135140563</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>28.04597191127845</v>
+        <v>35.19976468902637</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.73633841889208</v>
+        <v>8.267580947911464</v>
       </c>
       <c r="D23">
-        <v>4.823441836119838</v>
+        <v>2.358359905978889</v>
       </c>
       <c r="E23">
-        <v>12.76959570744089</v>
+        <v>11.82666697240774</v>
       </c>
       <c r="F23">
-        <v>32.54498168427385</v>
+        <v>43.53208390780861</v>
       </c>
       <c r="G23">
-        <v>3.609521063088993</v>
+        <v>1.967771782505081</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.24962569373607</v>
+        <v>33.73581928278901</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.498436476824001</v>
+        <v>7.347146033655555</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>27.89181073488903</v>
+        <v>34.4707130047241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.692165069142856</v>
+        <v>7.817467946741603</v>
       </c>
       <c r="D24">
-        <v>4.844670935041291</v>
+        <v>2.405662892478387</v>
       </c>
       <c r="E24">
-        <v>12.67926869310599</v>
+        <v>11.10047439584984</v>
       </c>
       <c r="F24">
-        <v>31.67265917207502</v>
+        <v>40.00010436617917</v>
       </c>
       <c r="G24">
-        <v>3.61493385489731</v>
+        <v>1.984766182398584</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.72078217329675</v>
+        <v>30.9814576788467</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.479364057936088</v>
+        <v>7.000126852221082</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>27.31344385160817</v>
+        <v>31.64125107002026</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.651817675125148</v>
+        <v>7.333855736352253</v>
       </c>
       <c r="D25">
-        <v>4.86950954277091</v>
+        <v>2.463261095033399</v>
       </c>
       <c r="E25">
-        <v>12.59222161091895</v>
+        <v>10.31282569125759</v>
       </c>
       <c r="F25">
-        <v>30.73921294634416</v>
+        <v>36.07372037043677</v>
       </c>
       <c r="G25">
-        <v>3.621202115862118</v>
+        <v>2.003344486004139</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.16786770945205</v>
+        <v>28.20962242703963</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.465607692995313</v>
+        <v>6.635661639071549</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>26.70455883351522</v>
+        <v>28.64649795472398</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.980104603912475</v>
+        <v>5.471792221881993</v>
       </c>
       <c r="D2">
-        <v>2.510242307889139</v>
+        <v>9.188922914273657</v>
       </c>
       <c r="E2">
-        <v>9.730014236902134</v>
+        <v>12.80326628547094</v>
       </c>
       <c r="F2">
-        <v>33.18803678465109</v>
+        <v>19.39355781123684</v>
       </c>
       <c r="G2">
-        <v>2.01736667833755</v>
+        <v>18.28863078101624</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.846972199347836</v>
       </c>
       <c r="I2">
-        <v>26.12234104837354</v>
+        <v>3.342223753537443</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.167765406872602</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.06803323898357</v>
       </c>
       <c r="L2">
-        <v>6.375729051175042</v>
+        <v>7.264913392690048</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>24.49583379321385</v>
       </c>
       <c r="N2">
-        <v>25.60720851682377</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>26.47583119607305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.76569871296207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.742517956071321</v>
+        <v>5.140735303026674</v>
       </c>
       <c r="D3">
-        <v>2.544548699238353</v>
+        <v>8.741460184361291</v>
       </c>
       <c r="E3">
-        <v>9.334377041386109</v>
+        <v>12.22176006125828</v>
       </c>
       <c r="F3">
-        <v>31.15237811588842</v>
+        <v>19.16820964043532</v>
       </c>
       <c r="G3">
-        <v>2.02713949894075</v>
+        <v>18.23821990494303</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.632055688797256</v>
       </c>
       <c r="I3">
-        <v>24.66433225156086</v>
+        <v>3.175598881157836</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.259585811788712</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.05747149956913</v>
       </c>
       <c r="L3">
-        <v>6.20501474457599</v>
+        <v>7.069276471396481</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>22.93806615813146</v>
       </c>
       <c r="N3">
-        <v>24.22561817997341</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>24.95543956129675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.87537510340566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.598022771365936</v>
+        <v>4.920963066912146</v>
       </c>
       <c r="D4">
-        <v>2.56673515898588</v>
+        <v>8.455940141314642</v>
       </c>
       <c r="E4">
-        <v>9.091695752198527</v>
+        <v>11.85059471577227</v>
       </c>
       <c r="F4">
-        <v>29.86444327706107</v>
+        <v>19.03915613026112</v>
       </c>
       <c r="G4">
-        <v>2.033289453340988</v>
+        <v>18.22702030369157</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.627464467402029</v>
       </c>
       <c r="I4">
-        <v>23.74928046016316</v>
+        <v>3.07001152993525</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.319645008745269</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.05670465320539</v>
       </c>
       <c r="L4">
-        <v>6.102989096395872</v>
+        <v>6.945780436020807</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>21.92501395473808</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.99908465890467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.95148668583374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.53954451524675</v>
+        <v>4.813603417444632</v>
       </c>
       <c r="D5">
-        <v>2.576047099832356</v>
+        <v>8.338850117612045</v>
       </c>
       <c r="E5">
-        <v>8.992966693395891</v>
+        <v>11.69657677757878</v>
       </c>
       <c r="F5">
-        <v>29.330381646798</v>
+        <v>18.98225115076631</v>
       </c>
       <c r="G5">
-        <v>2.035835386028717</v>
+        <v>18.21584028026728</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.686071543431573</v>
       </c>
       <c r="I5">
-        <v>23.37174319323846</v>
+        <v>3.026395992118759</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.343353785350844</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.05095757694195</v>
       </c>
       <c r="L5">
-        <v>6.062135146944417</v>
+        <v>6.894362457617322</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>21.49783909102904</v>
       </c>
       <c r="N5">
-        <v>22.96331756195407</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>23.603949919446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.98025113597464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.529860452356388</v>
+        <v>4.778844162496719</v>
       </c>
       <c r="D6">
-        <v>2.577609403489039</v>
+        <v>8.32153570323554</v>
       </c>
       <c r="E6">
-        <v>8.976586162615856</v>
+        <v>11.67160593616103</v>
       </c>
       <c r="F6">
-        <v>29.24115696860089</v>
+        <v>18.96483126520936</v>
       </c>
       <c r="G6">
-        <v>2.036260600094206</v>
+        <v>18.20039951486286</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.696162428378732</v>
       </c>
       <c r="I6">
-        <v>23.30878454221912</v>
+        <v>3.019589833466563</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.345313564426036</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.04174990687008</v>
       </c>
       <c r="L6">
-        <v>6.055395611714499</v>
+        <v>6.88543483988234</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>21.42587692387215</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.53802269477494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.97983524765403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.597232395472751</v>
+        <v>4.874928139413404</v>
       </c>
       <c r="D7">
-        <v>2.566859660149694</v>
+        <v>8.460494371123637</v>
       </c>
       <c r="E7">
-        <v>9.090363437654972</v>
+        <v>11.85070341244529</v>
       </c>
       <c r="F7">
-        <v>29.85727750828836</v>
+        <v>19.01632223558941</v>
       </c>
       <c r="G7">
-        <v>2.033323624824178</v>
+        <v>18.18900228579388</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.629009704910988</v>
       </c>
       <c r="I7">
-        <v>23.74420715592403</v>
+        <v>3.070447522354802</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.314413212624885</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.03385256868108</v>
       </c>
       <c r="L7">
-        <v>6.102435173799985</v>
+        <v>6.944171143706948</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>21.91884998224939</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>23.9937771433092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.93732741357452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.897929550700874</v>
+        <v>5.306183988408915</v>
       </c>
       <c r="D8">
-        <v>2.521830637039839</v>
+        <v>9.044558197889643</v>
       </c>
       <c r="E8">
-        <v>9.59360625689801</v>
+        <v>12.60850258723553</v>
       </c>
       <c r="F8">
-        <v>32.49420439859411</v>
+        <v>19.28520009330209</v>
       </c>
       <c r="G8">
-        <v>2.020706720805384</v>
+        <v>18.21713438180159</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.772928846423419</v>
       </c>
       <c r="I8">
-        <v>25.6239102689418</v>
+        <v>3.286383579895499</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.191283288433429</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.03310436365245</v>
       </c>
       <c r="L8">
-        <v>6.316298235674345</v>
+        <v>7.197024647181512</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>23.96990449570303</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>25.95650508091514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.78231033743448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.496468853773422</v>
+        <v>6.093043937448009</v>
       </c>
       <c r="D9">
-        <v>2.443087669212581</v>
+        <v>10.09056284925685</v>
       </c>
       <c r="E9">
-        <v>10.57869404623428</v>
+        <v>13.9743385893243</v>
       </c>
       <c r="F9">
-        <v>37.37332067390094</v>
+        <v>19.92585815891513</v>
       </c>
       <c r="G9">
-        <v>1.99704111830696</v>
+        <v>18.50694166077405</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.284148223835897</v>
       </c>
       <c r="I9">
-        <v>29.14250411529598</v>
+        <v>3.683602207854046</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.990488329216336</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.12002800118791</v>
       </c>
       <c r="L9">
-        <v>6.75713624381449</v>
+        <v>7.666213822414744</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>27.54388875047679</v>
       </c>
       <c r="N9">
-        <v>28.34722074380644</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>29.61481128328423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.57921197936357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.93949946752465</v>
+        <v>6.591884898046489</v>
       </c>
       <c r="D10">
-        <v>2.392244089459629</v>
+        <v>10.70716689869642</v>
       </c>
       <c r="E10">
-        <v>11.29791981403244</v>
+        <v>14.6742868372452</v>
       </c>
       <c r="F10">
-        <v>40.97324441208185</v>
+        <v>20.2744154565537</v>
       </c>
       <c r="G10">
-        <v>1.980140845967926</v>
+        <v>18.64647446285893</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.624553477548717</v>
       </c>
       <c r="I10">
-        <v>31.74043959037722</v>
+        <v>3.957234917457236</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.835664197240205</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.1430324197621</v>
       </c>
       <c r="L10">
-        <v>7.093523370030994</v>
+        <v>7.885173189105005</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>29.89478653430649</v>
       </c>
       <c r="N10">
-        <v>30.48602834203862</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>32.42109718689573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.40795017226722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.141537843644903</v>
+        <v>6.901803681751513</v>
       </c>
       <c r="D11">
-        <v>2.370997704225294</v>
+        <v>10.15991809667535</v>
       </c>
       <c r="E11">
-        <v>11.62386453857718</v>
+        <v>13.04932152063757</v>
       </c>
       <c r="F11">
-        <v>42.55819352093248</v>
+        <v>19.04542995189902</v>
       </c>
       <c r="G11">
-        <v>1.97251515411063</v>
+        <v>17.2055058399087</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.342184866924383</v>
       </c>
       <c r="I11">
-        <v>32.97642877780454</v>
+        <v>4.046528844061787</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.541549738939979</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.58845480753239</v>
       </c>
       <c r="L11">
-        <v>7.24928948869043</v>
+        <v>7.116561685714397</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>30.88697014738712</v>
       </c>
       <c r="N11">
-        <v>31.41016321374475</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>33.69077775938229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.73432875280144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.218115115768954</v>
+        <v>7.123113307836311</v>
       </c>
       <c r="D12">
-        <v>2.363262674563677</v>
+        <v>9.556681705466511</v>
       </c>
       <c r="E12">
-        <v>11.74712316414974</v>
+        <v>11.5692700747178</v>
       </c>
       <c r="F12">
-        <v>43.15115804997682</v>
+        <v>17.95535527798179</v>
       </c>
       <c r="G12">
-        <v>1.969632370853213</v>
+        <v>15.99429489183067</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.472173215048294</v>
       </c>
       <c r="I12">
-        <v>33.43879841748695</v>
+        <v>4.066157956020653</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.334995328201675</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.14423929359836</v>
       </c>
       <c r="L12">
-        <v>7.308681643051809</v>
+        <v>6.510194812830142</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>31.24799850891967</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>34.16566946879963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.22249397263073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.201619610772701</v>
+        <v>7.243472279438954</v>
       </c>
       <c r="D13">
-        <v>2.364914010080897</v>
+        <v>8.866292523322176</v>
       </c>
       <c r="E13">
-        <v>11.72058434704168</v>
+        <v>10.10650333994584</v>
       </c>
       <c r="F13">
-        <v>43.02376719724274</v>
+        <v>16.86838532555528</v>
       </c>
       <c r="G13">
-        <v>1.97025308207072</v>
+        <v>14.82224032946167</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.715555700712089</v>
       </c>
       <c r="I13">
-        <v>33.33946581649542</v>
+        <v>4.035123306850532</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.176271225481853</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.72224068254805</v>
       </c>
       <c r="L13">
-        <v>7.295872060912082</v>
+        <v>6.010961113725333</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>31.15685349477962</v>
       </c>
       <c r="N13">
-        <v>31.67947945617571</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>34.06365018217982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.78502738331027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.147836466242712</v>
+        <v>7.273996179847401</v>
       </c>
       <c r="D14">
-        <v>2.370354855253217</v>
+        <v>8.338172750286727</v>
       </c>
       <c r="E14">
-        <v>11.63400835896865</v>
+        <v>9.113601316728392</v>
       </c>
       <c r="F14">
-        <v>42.6071194802558</v>
+        <v>16.10915767584117</v>
       </c>
       <c r="G14">
-        <v>1.972277912681573</v>
+        <v>14.01866897468713</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.625234068595705</v>
       </c>
       <c r="I14">
-        <v>33.01457999953901</v>
+        <v>3.991160909899204</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.08789726338611</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.4336024104832</v>
       </c>
       <c r="L14">
-        <v>7.254167449633181</v>
+        <v>5.742008795506828</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>30.88724260203986</v>
       </c>
       <c r="N14">
-        <v>31.43851144188478</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>33.72996379102642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.51564760458396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.114901994807207</v>
+        <v>7.245153435830654</v>
       </c>
       <c r="D15">
-        <v>2.373729302855181</v>
+        <v>8.191901001907489</v>
       </c>
       <c r="E15">
-        <v>11.58095666826855</v>
+        <v>8.871396584215352</v>
       </c>
       <c r="F15">
-        <v>42.35098217552476</v>
+        <v>15.92096182029105</v>
       </c>
       <c r="G15">
-        <v>1.973518688825762</v>
+        <v>13.82433855649818</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.83240931540284</v>
       </c>
       <c r="I15">
-        <v>32.81484903992563</v>
+        <v>3.96989939788617</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.075269260691404</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.36186686515309</v>
       </c>
       <c r="L15">
-        <v>7.22867572750237</v>
+        <v>5.687592823283683</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>30.72352041725064</v>
       </c>
       <c r="N15">
-        <v>31.28998244549474</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>33.52481209951195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.46296091529303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.926305344257548</v>
+        <v>7.004819392510128</v>
       </c>
       <c r="D16">
-        <v>2.393673676703449</v>
+        <v>8.034891934981623</v>
       </c>
       <c r="E16">
-        <v>11.27659380444179</v>
+        <v>8.798620843546361</v>
       </c>
       <c r="F16">
-        <v>40.86863266216544</v>
+        <v>15.96749783557664</v>
       </c>
       <c r="G16">
-        <v>1.980640121221097</v>
+        <v>13.96871793532401</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.559314202462431</v>
       </c>
       <c r="I16">
-        <v>31.65885368222984</v>
+        <v>3.860858254125152</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.173678865733554</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.42292181026065</v>
       </c>
       <c r="L16">
-        <v>7.083399692256215</v>
+        <v>5.681188080202194</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>29.77820619909094</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>32.33727528108417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.62422809890536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.810729661449686</v>
+        <v>6.796652728392898</v>
       </c>
       <c r="D17">
-        <v>2.406416707706111</v>
+        <v>8.20523398366284</v>
       </c>
       <c r="E17">
-        <v>11.08955833271499</v>
+        <v>9.26797492401225</v>
       </c>
       <c r="F17">
-        <v>39.94599390373045</v>
+        <v>16.40578165327116</v>
       </c>
       <c r="G17">
-        <v>1.985022117599544</v>
+        <v>14.50319246288756</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.816949955503435</v>
       </c>
       <c r="I17">
-        <v>30.93925266131493</v>
+        <v>3.800392150284564</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.29457370662645</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.62199042068956</v>
       </c>
       <c r="L17">
-        <v>6.994985414378646</v>
+        <v>5.804221504958107</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>29.18691259810068</v>
       </c>
       <c r="N17">
-        <v>29.88120505119275</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>31.59788156909037</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.88651741778002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.744300084828137</v>
+        <v>6.62983139596783</v>
       </c>
       <c r="D18">
-        <v>2.413920504613001</v>
+        <v>8.67600632892516</v>
       </c>
       <c r="E18">
-        <v>10.98186221696201</v>
+        <v>10.33146430049424</v>
       </c>
       <c r="F18">
-        <v>39.41033248010769</v>
+        <v>17.25033019670784</v>
       </c>
       <c r="G18">
-        <v>1.987548663357624</v>
+        <v>15.45883030022481</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.631203184230583</v>
       </c>
       <c r="I18">
-        <v>30.53816046692337</v>
+        <v>3.77478563108184</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.453948576268258</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.97855358192828</v>
       </c>
       <c r="L18">
-        <v>6.944388573894946</v>
+        <v>6.134146317955827</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>28.8475909678969</v>
       </c>
       <c r="N18">
-        <v>29.56404287680427</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>31.16850700833857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.27912424132642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.721816463889171</v>
+        <v>6.446819447856582</v>
       </c>
       <c r="D19">
-        <v>2.41649003251713</v>
+        <v>9.358816240502069</v>
       </c>
       <c r="E19">
-        <v>10.94537803050938</v>
+        <v>11.86331006614411</v>
       </c>
       <c r="F19">
-        <v>39.22810127290543</v>
+        <v>18.33662280438279</v>
       </c>
       <c r="G19">
-        <v>1.988405278145456</v>
+        <v>16.63235967902202</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.346152342954937</v>
       </c>
       <c r="I19">
-        <v>30.41272120724742</v>
+        <v>3.785941134433552</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.62842694433532</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.40108426367827</v>
       </c>
       <c r="L19">
-        <v>6.927301235594217</v>
+        <v>6.70279856021214</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>28.7411517492528</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>31.02241633686195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.73565195409915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.823028140783879</v>
+        <v>6.357961019831381</v>
       </c>
       <c r="D20">
-        <v>2.405041886107722</v>
+        <v>10.55978066940022</v>
       </c>
       <c r="E20">
-        <v>11.10948084216597</v>
+        <v>14.48947474500533</v>
       </c>
       <c r="F20">
-        <v>40.04472389977371</v>
+        <v>20.10849629492981</v>
       </c>
       <c r="G20">
-        <v>1.98455503924122</v>
+        <v>18.48011315134201</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.532755931058687</v>
       </c>
       <c r="I20">
-        <v>31.01625975483946</v>
+        <v>3.890638322367146</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.856313445749322</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.06233834981035</v>
       </c>
       <c r="L20">
-        <v>7.00437063976263</v>
+        <v>7.821369401738715</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>29.29454250724229</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>31.67701302408542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.40054984509569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.16363193377723</v>
+        <v>6.718138548071613</v>
       </c>
       <c r="D21">
-        <v>2.368747957655644</v>
+        <v>11.15902349818878</v>
       </c>
       <c r="E21">
-        <v>11.65944223319228</v>
+        <v>15.35598645451615</v>
       </c>
       <c r="F21">
-        <v>42.7296917764969</v>
+        <v>20.65092918261239</v>
       </c>
       <c r="G21">
-        <v>1.971683072776782</v>
+        <v>18.91658607769289</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.809663391390396</v>
       </c>
       <c r="I21">
-        <v>33.11015815582986</v>
+        <v>4.101973372854395</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.78790260006854</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.20245383456831</v>
       </c>
       <c r="L21">
-        <v>7.266405905160058</v>
+        <v>8.149156041146192</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>31.01663894861719</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>33.82813312985015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.40250945819336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.386652198464445</v>
+        <v>6.989608204947801</v>
       </c>
       <c r="D22">
-        <v>2.346863050535452</v>
+        <v>11.48381645648402</v>
       </c>
       <c r="E22">
-        <v>12.01790823363339</v>
+        <v>15.7874065061504</v>
       </c>
       <c r="F22">
-        <v>44.44260567459266</v>
+        <v>20.95858501175569</v>
       </c>
       <c r="G22">
-        <v>1.963296790867601</v>
+        <v>19.18477915937683</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.980229283068418</v>
       </c>
       <c r="I22">
-        <v>34.44575842951133</v>
+        <v>4.233791832018981</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.742225050463877</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.29779309069426</v>
       </c>
       <c r="L22">
-        <v>7.440047135140563</v>
+        <v>8.305743898200793</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>32.09252774498618</v>
       </c>
       <c r="N22">
-        <v>32.49403281050592</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>35.19976468902637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.40044031767099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.267580947911464</v>
+        <v>6.884810098711021</v>
       </c>
       <c r="D23">
-        <v>2.358359905978889</v>
+        <v>11.30595472613694</v>
       </c>
       <c r="E23">
-        <v>11.82666697240774</v>
+        <v>15.5564448450463</v>
       </c>
       <c r="F23">
-        <v>43.53208390780861</v>
+        <v>20.81726938135284</v>
       </c>
       <c r="G23">
-        <v>1.967771782505081</v>
+        <v>19.08165096742649</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.890222914331838</v>
       </c>
       <c r="I23">
-        <v>33.73581928278901</v>
+        <v>4.161874778224551</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.772833327412446</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.27242829957271</v>
       </c>
       <c r="L23">
-        <v>7.347146033655555</v>
+        <v>8.223391708293876</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>31.52316895901314</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>34.4707130047241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.4177378163773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.817467946741603</v>
+        <v>6.401077885087579</v>
       </c>
       <c r="D24">
-        <v>2.405662892478387</v>
+        <v>10.61791355605843</v>
       </c>
       <c r="E24">
-        <v>11.10047439584984</v>
+        <v>14.65529053168214</v>
       </c>
       <c r="F24">
-        <v>40.00010436617917</v>
+        <v>20.2628539390616</v>
       </c>
       <c r="G24">
-        <v>1.984766182398584</v>
+        <v>18.67467119590895</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.541094953162154</v>
       </c>
       <c r="I24">
-        <v>30.9814576788467</v>
+        <v>3.887285796103491</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.887748949330595</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.14974310348562</v>
       </c>
       <c r="L24">
-        <v>7.000126852221082</v>
+        <v>7.902524400466976</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>29.26802101804223</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>31.64125107002026</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.48071594392065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.333855736352253</v>
+        <v>5.826029444889469</v>
       </c>
       <c r="D25">
-        <v>2.463261095033399</v>
+        <v>9.827218594847674</v>
       </c>
       <c r="E25">
-        <v>10.31282569125759</v>
+        <v>13.6213866873587</v>
       </c>
       <c r="F25">
-        <v>36.07372037043677</v>
+        <v>19.70625511041677</v>
       </c>
       <c r="G25">
-        <v>2.003344486004139</v>
+        <v>18.34197456505409</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.148557167467622</v>
       </c>
       <c r="I25">
-        <v>28.20962242703963</v>
+        <v>3.580801931259588</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.031196988399257</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.05027372553348</v>
       </c>
       <c r="L25">
-        <v>6.635661639071549</v>
+        <v>7.54101611497586</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>26.62431611974033</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>28.64649795472398</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.59890718250063</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.471792221881993</v>
+        <v>4.558787359706029</v>
       </c>
       <c r="D2">
-        <v>9.188922914273657</v>
+        <v>9.299462301548186</v>
       </c>
       <c r="E2">
-        <v>12.80326628547094</v>
+        <v>12.83924541406545</v>
       </c>
       <c r="F2">
-        <v>19.39355781123684</v>
+        <v>18.97593879353219</v>
       </c>
       <c r="G2">
-        <v>18.28863078101624</v>
+        <v>16.83704609440568</v>
       </c>
       <c r="H2">
-        <v>1.846972199347836</v>
+        <v>1.827600440370094</v>
       </c>
       <c r="I2">
-        <v>3.342223753537443</v>
+        <v>3.332472547335399</v>
       </c>
       <c r="J2">
-        <v>8.167765406872602</v>
+        <v>8.555712894280456</v>
       </c>
       <c r="K2">
-        <v>13.06803323898357</v>
+        <v>12.58431153601265</v>
       </c>
       <c r="L2">
-        <v>7.264913392690048</v>
+        <v>11.56924641360289</v>
       </c>
       <c r="M2">
-        <v>24.49583379321385</v>
+        <v>7.162986681618574</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.245165570398014</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.48418904469093</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.76569871296207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.4938910230022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.140735303026674</v>
+        <v>4.323142079166471</v>
       </c>
       <c r="D3">
-        <v>8.741460184361291</v>
+        <v>8.839780206656972</v>
       </c>
       <c r="E3">
-        <v>12.22176006125828</v>
+        <v>12.25887507465938</v>
       </c>
       <c r="F3">
-        <v>19.16820964043532</v>
+        <v>18.80997409129231</v>
       </c>
       <c r="G3">
-        <v>18.23821990494303</v>
+        <v>16.91347349727276</v>
       </c>
       <c r="H3">
-        <v>1.632055688797256</v>
+        <v>1.623116208389392</v>
       </c>
       <c r="I3">
-        <v>3.175598881157836</v>
+        <v>3.187727507780783</v>
       </c>
       <c r="J3">
-        <v>8.259585811788712</v>
+        <v>8.621591242602129</v>
       </c>
       <c r="K3">
-        <v>13.05747149956913</v>
+        <v>12.62445502270573</v>
       </c>
       <c r="L3">
-        <v>7.069276471396481</v>
+        <v>11.71157893701689</v>
       </c>
       <c r="M3">
-        <v>22.93806615813146</v>
+        <v>7.052347735998338</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.056046502019793</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>22.93264691206092</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.87537510340566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.63643557428857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.920963066912146</v>
+        <v>4.16545211333335</v>
       </c>
       <c r="D4">
-        <v>8.455940141314642</v>
+        <v>8.546610372794479</v>
       </c>
       <c r="E4">
-        <v>11.85059471577227</v>
+        <v>11.88865745511623</v>
       </c>
       <c r="F4">
-        <v>19.03915613026112</v>
+        <v>18.71627552803212</v>
       </c>
       <c r="G4">
-        <v>18.22702030369157</v>
+        <v>16.98166513602521</v>
       </c>
       <c r="H4">
-        <v>1.627464467402029</v>
+        <v>1.629884974588359</v>
       </c>
       <c r="I4">
-        <v>3.07001152993525</v>
+        <v>3.096098945088427</v>
       </c>
       <c r="J4">
-        <v>8.319645008745269</v>
+        <v>8.663884933420519</v>
       </c>
       <c r="K4">
-        <v>13.05670465320539</v>
+        <v>12.65284744279487</v>
       </c>
       <c r="L4">
-        <v>6.945780436020807</v>
+        <v>11.80005357437498</v>
       </c>
       <c r="M4">
-        <v>21.92501395473808</v>
+        <v>7.009631868584526</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.936732904610865</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.92365440364081</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.95148668583374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.7310956410158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.813603417444632</v>
+        <v>4.084586809417099</v>
       </c>
       <c r="D5">
-        <v>8.338850117612045</v>
+        <v>8.426345154373733</v>
       </c>
       <c r="E5">
-        <v>11.69657677757878</v>
+        <v>11.73509237652383</v>
       </c>
       <c r="F5">
-        <v>18.98225115076631</v>
+        <v>18.67372443614981</v>
       </c>
       <c r="G5">
-        <v>18.21584028026728</v>
+        <v>17.00345553771762</v>
       </c>
       <c r="H5">
-        <v>1.686071543431573</v>
+        <v>1.685683651069494</v>
       </c>
       <c r="I5">
-        <v>3.026395992118759</v>
+        <v>3.058559891090795</v>
       </c>
       <c r="J5">
-        <v>8.343353785350844</v>
+        <v>8.679984346312278</v>
       </c>
       <c r="K5">
-        <v>13.05095757694195</v>
+        <v>12.65893655560502</v>
       </c>
       <c r="L5">
-        <v>6.894362457617322</v>
+        <v>11.83088274779749</v>
       </c>
       <c r="M5">
-        <v>21.49783909102904</v>
+        <v>6.994508924144029</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.887075986719056</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.49821236792414</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.98025113597464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.76727868585489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.778844162496719</v>
+        <v>4.05472663715967</v>
       </c>
       <c r="D6">
-        <v>8.32153570323554</v>
+        <v>8.408461761776421</v>
       </c>
       <c r="E6">
-        <v>11.67160593616103</v>
+        <v>11.71019530700958</v>
       </c>
       <c r="F6">
-        <v>18.96483126520936</v>
+        <v>18.65897168167566</v>
       </c>
       <c r="G6">
-        <v>18.20039951486286</v>
+        <v>16.99392730338232</v>
       </c>
       <c r="H6">
-        <v>1.696162428378732</v>
+        <v>1.695286136956992</v>
       </c>
       <c r="I6">
-        <v>3.019589833466563</v>
+        <v>3.053117580556964</v>
       </c>
       <c r="J6">
-        <v>8.345313564426036</v>
+        <v>8.680742775736569</v>
       </c>
       <c r="K6">
-        <v>13.04174990687008</v>
+        <v>12.65220964968169</v>
       </c>
       <c r="L6">
-        <v>6.88543483988234</v>
+        <v>11.82930732421315</v>
       </c>
       <c r="M6">
-        <v>21.42587692387215</v>
+        <v>6.987306533991985</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.878457794263889</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.42655402572776</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.97983524765403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.76837819042469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.874928139413404</v>
+        <v>4.126219693572412</v>
       </c>
       <c r="D7">
-        <v>8.460494371123637</v>
+        <v>8.554664655367828</v>
       </c>
       <c r="E7">
-        <v>11.85070341244529</v>
+        <v>11.89004776236139</v>
       </c>
       <c r="F7">
-        <v>19.01632223558941</v>
+        <v>18.68161810299846</v>
       </c>
       <c r="G7">
-        <v>18.18900228579388</v>
+        <v>17.01548753558626</v>
       </c>
       <c r="H7">
-        <v>1.629009704910988</v>
+        <v>1.631795885234522</v>
       </c>
       <c r="I7">
-        <v>3.070447522354802</v>
+        <v>3.097043149446509</v>
       </c>
       <c r="J7">
-        <v>8.314413212624885</v>
+        <v>8.631015760163201</v>
       </c>
       <c r="K7">
-        <v>13.03385256868108</v>
+        <v>12.62431096109538</v>
       </c>
       <c r="L7">
-        <v>6.944171143706948</v>
+        <v>11.77642386436535</v>
       </c>
       <c r="M7">
-        <v>21.91884998224939</v>
+        <v>6.989810444764484</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.934638118585998</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>21.91726873732568</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.93732741357452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.70966811630945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.306183988408915</v>
+        <v>4.443173454725352</v>
       </c>
       <c r="D8">
-        <v>9.044558197889643</v>
+        <v>9.162236803715263</v>
       </c>
       <c r="E8">
-        <v>12.60850258723553</v>
+        <v>12.6489417720016</v>
       </c>
       <c r="F8">
-        <v>19.28520009330209</v>
+        <v>18.84740425689721</v>
       </c>
       <c r="G8">
-        <v>18.21713438180159</v>
+        <v>17.04663269163491</v>
       </c>
       <c r="H8">
-        <v>1.772928846423419</v>
+        <v>1.755826953329013</v>
       </c>
       <c r="I8">
-        <v>3.286383579895499</v>
+        <v>3.283757594120956</v>
       </c>
       <c r="J8">
-        <v>8.191283288433429</v>
+        <v>8.480533617593313</v>
       </c>
       <c r="K8">
-        <v>13.03310436365245</v>
+        <v>12.54526227535238</v>
       </c>
       <c r="L8">
-        <v>7.197024647181512</v>
+        <v>11.57759426747569</v>
       </c>
       <c r="M8">
-        <v>23.96990449570303</v>
+        <v>7.079265552011275</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.177828437372042</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>23.95958777004014</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.78231033743448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.49608567628344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.093043937448009</v>
+        <v>5.013181010782731</v>
       </c>
       <c r="D9">
-        <v>10.09056284925685</v>
+        <v>10.23938811360205</v>
       </c>
       <c r="E9">
-        <v>13.9743385893243</v>
+        <v>14.01377854093601</v>
       </c>
       <c r="F9">
-        <v>19.92585815891513</v>
+        <v>19.32387267216332</v>
       </c>
       <c r="G9">
-        <v>18.50694166077405</v>
+        <v>17.09742522754186</v>
       </c>
       <c r="H9">
-        <v>2.284148223835897</v>
+        <v>2.241641352655482</v>
       </c>
       <c r="I9">
-        <v>3.683602207854046</v>
+        <v>3.627991934440442</v>
       </c>
       <c r="J9">
-        <v>7.990488329216336</v>
+        <v>8.306911928875396</v>
       </c>
       <c r="K9">
-        <v>13.12002800118791</v>
+        <v>12.4864607356448</v>
       </c>
       <c r="L9">
-        <v>7.666213822414744</v>
+        <v>11.24702803790813</v>
       </c>
       <c r="M9">
-        <v>27.54388875047679</v>
+        <v>7.497088454480577</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.631442709344181</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.51889800608499</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.57921197936357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.19226430759176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.591884898046489</v>
+        <v>5.40497002235319</v>
       </c>
       <c r="D10">
-        <v>10.70716689869642</v>
+        <v>10.89253409140989</v>
       </c>
       <c r="E10">
-        <v>14.6742868372452</v>
+        <v>14.71876429117744</v>
       </c>
       <c r="F10">
-        <v>20.2744154565537</v>
+        <v>19.48961764994684</v>
       </c>
       <c r="G10">
-        <v>18.64647446285893</v>
+        <v>17.50518238516142</v>
       </c>
       <c r="H10">
-        <v>2.624553477548717</v>
+        <v>2.56269489186448</v>
       </c>
       <c r="I10">
-        <v>3.957234917457236</v>
+        <v>3.864102754753934</v>
       </c>
       <c r="J10">
-        <v>7.835664197240205</v>
+        <v>8.016000291718765</v>
       </c>
       <c r="K10">
-        <v>13.1430324197621</v>
+        <v>12.36294605601369</v>
       </c>
       <c r="L10">
-        <v>7.885173189105005</v>
+        <v>10.94256241530425</v>
       </c>
       <c r="M10">
-        <v>29.89478653430649</v>
+        <v>7.814833335858482</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.837658705116782</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>29.85866083431744</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.40795017226722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.89820321862184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.901803681751513</v>
+        <v>5.79234420191786</v>
       </c>
       <c r="D11">
-        <v>10.15991809667535</v>
+        <v>10.37295789930219</v>
       </c>
       <c r="E11">
-        <v>13.04932152063757</v>
+        <v>13.09418532493803</v>
       </c>
       <c r="F11">
-        <v>19.04542995189902</v>
+        <v>18.15333805533844</v>
       </c>
       <c r="G11">
-        <v>17.2055058399087</v>
+        <v>16.99371096181044</v>
       </c>
       <c r="H11">
-        <v>3.342184866924383</v>
+        <v>3.287348883307945</v>
       </c>
       <c r="I11">
-        <v>4.046528844061787</v>
+        <v>3.94022491508498</v>
       </c>
       <c r="J11">
-        <v>7.541549738939979</v>
+        <v>7.5321857355357</v>
       </c>
       <c r="K11">
-        <v>12.58845480753239</v>
+        <v>11.77097469875895</v>
       </c>
       <c r="L11">
-        <v>7.116561685714397</v>
+        <v>10.47133935096925</v>
       </c>
       <c r="M11">
-        <v>30.88697014738712</v>
+        <v>7.475636283869997</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.062798516379291</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>30.84601733026486</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.73432875280144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.16957654434411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.123113307836311</v>
+        <v>6.087273959147696</v>
       </c>
       <c r="D12">
-        <v>9.556681705466511</v>
+        <v>9.774148538755572</v>
       </c>
       <c r="E12">
-        <v>11.5692700747178</v>
+        <v>11.60592996012982</v>
       </c>
       <c r="F12">
-        <v>17.95535527798179</v>
+        <v>17.06084788819485</v>
       </c>
       <c r="G12">
-        <v>15.99429489183067</v>
+        <v>16.23851356316307</v>
       </c>
       <c r="H12">
-        <v>4.472173215048294</v>
+        <v>4.430693949961189</v>
       </c>
       <c r="I12">
-        <v>4.066157956020653</v>
+        <v>3.955774309779082</v>
       </c>
       <c r="J12">
-        <v>7.334995328201675</v>
+        <v>7.324956510602519</v>
       </c>
       <c r="K12">
-        <v>12.14423929359836</v>
+        <v>11.35420107344583</v>
       </c>
       <c r="L12">
-        <v>6.510194812830142</v>
+        <v>10.18499577193724</v>
       </c>
       <c r="M12">
-        <v>31.24799850891967</v>
+        <v>7.159777869388699</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.456118208229682</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>31.20579620661119</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.22249397263073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.67434519463149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.243472279438954</v>
+        <v>6.278347564966638</v>
       </c>
       <c r="D13">
-        <v>8.866292523322176</v>
+        <v>9.063233536570939</v>
       </c>
       <c r="E13">
-        <v>10.10650333994584</v>
+        <v>10.12519612706123</v>
       </c>
       <c r="F13">
-        <v>16.86838532555528</v>
+        <v>16.08059963000521</v>
       </c>
       <c r="G13">
-        <v>14.82224032946167</v>
+        <v>14.99610431434681</v>
       </c>
       <c r="H13">
-        <v>5.715555700712089</v>
+        <v>5.685373670288402</v>
       </c>
       <c r="I13">
-        <v>4.035123306850532</v>
+        <v>3.929444128888456</v>
       </c>
       <c r="J13">
-        <v>7.176271225481853</v>
+        <v>7.278671544469819</v>
       </c>
       <c r="K13">
-        <v>11.72224068254805</v>
+        <v>11.02930999398257</v>
       </c>
       <c r="L13">
-        <v>6.010961113725333</v>
+        <v>9.999514029291845</v>
       </c>
       <c r="M13">
-        <v>31.15685349477962</v>
+        <v>6.82858939895325</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.962113209153704</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>31.11642443956445</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.78502738331027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.32542840926206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.273996179847401</v>
+        <v>6.35931640507294</v>
       </c>
       <c r="D14">
-        <v>8.338172750286727</v>
+        <v>8.50970058495518</v>
       </c>
       <c r="E14">
-        <v>9.113601316728392</v>
+        <v>9.115525659002506</v>
       </c>
       <c r="F14">
-        <v>16.10915767584117</v>
+        <v>15.44189571033535</v>
       </c>
       <c r="G14">
-        <v>14.01866897468713</v>
+        <v>13.92112818183442</v>
       </c>
       <c r="H14">
-        <v>6.625234068595705</v>
+        <v>6.601479144123054</v>
       </c>
       <c r="I14">
-        <v>3.991160909899204</v>
+        <v>3.892998128167904</v>
       </c>
       <c r="J14">
-        <v>7.08789726338611</v>
+        <v>7.298016269790768</v>
       </c>
       <c r="K14">
-        <v>11.4336024104832</v>
+        <v>10.8374304968295</v>
       </c>
       <c r="L14">
-        <v>5.742008795506828</v>
+        <v>9.907318301550617</v>
       </c>
       <c r="M14">
-        <v>30.88724260203986</v>
+        <v>6.586060462489105</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.699212301147483</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.84939041930578</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.51564760458396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.14505088035422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.245153435830654</v>
+        <v>6.343439978027917</v>
       </c>
       <c r="D15">
-        <v>8.191901001907489</v>
+        <v>8.352679495604285</v>
       </c>
       <c r="E15">
-        <v>8.871396584215352</v>
+        <v>8.868416542512469</v>
       </c>
       <c r="F15">
-        <v>15.92096182029105</v>
+        <v>15.30174670072673</v>
       </c>
       <c r="G15">
-        <v>13.82433855649818</v>
+        <v>13.57151842405797</v>
       </c>
       <c r="H15">
-        <v>6.83240931540284</v>
+        <v>6.810409113941033</v>
       </c>
       <c r="I15">
-        <v>3.96989939788617</v>
+        <v>3.875915330109335</v>
       </c>
       <c r="J15">
-        <v>7.075269260691404</v>
+        <v>7.325034900275199</v>
       </c>
       <c r="K15">
-        <v>11.36186686515309</v>
+        <v>10.80179375308457</v>
       </c>
       <c r="L15">
-        <v>5.687592823283683</v>
+        <v>9.898236017441169</v>
       </c>
       <c r="M15">
-        <v>30.72352041725064</v>
+        <v>6.518183017348392</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.647103004605358</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.68694548915405</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.46296091529303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.12513375588426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.004819392510128</v>
+        <v>6.105907695650621</v>
       </c>
       <c r="D16">
-        <v>8.034891934981623</v>
+        <v>8.158388337235547</v>
       </c>
       <c r="E16">
-        <v>8.798620843546361</v>
+        <v>8.791716629029498</v>
       </c>
       <c r="F16">
-        <v>15.96749783557664</v>
+        <v>15.49985243456348</v>
       </c>
       <c r="G16">
-        <v>13.96871793532401</v>
+        <v>13.01345604177578</v>
       </c>
       <c r="H16">
-        <v>6.559314202462431</v>
+        <v>6.541255913709981</v>
       </c>
       <c r="I16">
-        <v>3.860858254125152</v>
+        <v>3.785347368521844</v>
       </c>
       <c r="J16">
-        <v>7.173678865733554</v>
+        <v>7.560844839090525</v>
       </c>
       <c r="K16">
-        <v>11.42292181026065</v>
+        <v>10.96134000103339</v>
       </c>
       <c r="L16">
-        <v>5.681188080202194</v>
+        <v>10.06092849973674</v>
       </c>
       <c r="M16">
-        <v>29.77820619909094</v>
+        <v>6.493236812665641</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.647659404958848</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>29.74757252714226</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.62422809890536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.37595443133204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.796652728392898</v>
+        <v>5.877790787946982</v>
       </c>
       <c r="D17">
-        <v>8.20523398366284</v>
+        <v>8.317885121760019</v>
       </c>
       <c r="E17">
-        <v>9.26797492401225</v>
+        <v>9.266743380291723</v>
       </c>
       <c r="F17">
-        <v>16.40578165327116</v>
+        <v>15.97743971387976</v>
       </c>
       <c r="G17">
-        <v>14.50319246288756</v>
+        <v>13.25222013402079</v>
       </c>
       <c r="H17">
-        <v>5.816949955503435</v>
+        <v>5.799179129493898</v>
       </c>
       <c r="I17">
-        <v>3.800392150284564</v>
+        <v>3.734729324428612</v>
       </c>
       <c r="J17">
-        <v>7.29457370662645</v>
+        <v>7.738135098938949</v>
       </c>
       <c r="K17">
-        <v>11.62199042068956</v>
+        <v>11.17728828332199</v>
       </c>
       <c r="L17">
-        <v>5.804221504958107</v>
+        <v>10.23726574168092</v>
       </c>
       <c r="M17">
-        <v>29.18691259810068</v>
+        <v>6.593849545152519</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.772873651683959</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>29.15924086283498</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.88651741778002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.65495535194357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.62983139596783</v>
+        <v>5.659243815342229</v>
       </c>
       <c r="D18">
-        <v>8.67600632892516</v>
+        <v>8.792803425068099</v>
       </c>
       <c r="E18">
-        <v>10.33146430049424</v>
+        <v>10.3409170100628</v>
       </c>
       <c r="F18">
-        <v>17.25033019670784</v>
+        <v>16.79599466651938</v>
       </c>
       <c r="G18">
-        <v>15.45883030022481</v>
+        <v>14.04338157530062</v>
       </c>
       <c r="H18">
-        <v>4.631203184230583</v>
+        <v>4.609736881677097</v>
       </c>
       <c r="I18">
-        <v>3.77478563108184</v>
+        <v>3.711873118856257</v>
       </c>
       <c r="J18">
-        <v>7.453948576268258</v>
+        <v>7.906286448750538</v>
       </c>
       <c r="K18">
-        <v>11.97855358192828</v>
+        <v>11.49729603021556</v>
       </c>
       <c r="L18">
-        <v>6.134146317955827</v>
+        <v>10.46850110479801</v>
       </c>
       <c r="M18">
-        <v>28.8475909678969</v>
+        <v>6.833120308118448</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.102025289463777</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>28.82087105972807</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.27912424132642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.02052048343784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.446819447856582</v>
+        <v>5.405256026091624</v>
       </c>
       <c r="D19">
-        <v>9.358816240502069</v>
+        <v>9.488340856612272</v>
       </c>
       <c r="E19">
-        <v>11.86331006614411</v>
+        <v>11.884630391873</v>
       </c>
       <c r="F19">
-        <v>18.33662280438279</v>
+        <v>17.81846862970589</v>
       </c>
       <c r="G19">
-        <v>16.63235967902202</v>
+        <v>15.10826248511902</v>
       </c>
       <c r="H19">
-        <v>3.346152342954937</v>
+        <v>3.314731807412787</v>
       </c>
       <c r="I19">
-        <v>3.785941134433552</v>
+        <v>3.722075084615803</v>
       </c>
       <c r="J19">
-        <v>7.62842694433532</v>
+        <v>8.062149886966834</v>
       </c>
       <c r="K19">
-        <v>12.40108426367827</v>
+        <v>11.8525363285185</v>
       </c>
       <c r="L19">
-        <v>6.70279856021214</v>
+        <v>10.71106688744656</v>
       </c>
       <c r="M19">
-        <v>28.7411517492528</v>
+        <v>7.138510490932914</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.668168735652989</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>28.71380192861348</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.73565195409915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.42460423992474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.357961019831381</v>
+        <v>5.192197202054494</v>
       </c>
       <c r="D20">
-        <v>10.55978066940022</v>
+        <v>10.72471374177789</v>
       </c>
       <c r="E20">
-        <v>14.48947474500533</v>
+        <v>14.52856723055266</v>
       </c>
       <c r="F20">
-        <v>20.10849629492981</v>
+        <v>19.41812331992398</v>
       </c>
       <c r="G20">
-        <v>18.48011315134201</v>
+        <v>17.01251826087465</v>
       </c>
       <c r="H20">
-        <v>2.532755931058687</v>
+        <v>2.477292117297213</v>
       </c>
       <c r="I20">
-        <v>3.890638322367146</v>
+        <v>3.811648235296045</v>
       </c>
       <c r="J20">
-        <v>7.856313445749322</v>
+        <v>8.168028981838107</v>
       </c>
       <c r="K20">
-        <v>13.06233834981035</v>
+        <v>12.35361422974226</v>
       </c>
       <c r="L20">
-        <v>7.821369401738715</v>
+        <v>10.99487845064002</v>
       </c>
       <c r="M20">
-        <v>29.29454250724229</v>
+        <v>7.689753495573921</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.77884862955297</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>29.26212062869398</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.40054984509569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.95755859742864</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.718138548071613</v>
+        <v>5.530542197931444</v>
       </c>
       <c r="D21">
-        <v>11.15902349818878</v>
+        <v>11.40927114506052</v>
       </c>
       <c r="E21">
-        <v>15.35598645451615</v>
+        <v>15.42194978354212</v>
       </c>
       <c r="F21">
-        <v>20.65092918261239</v>
+        <v>19.57737389270802</v>
       </c>
       <c r="G21">
-        <v>18.91658607769289</v>
+        <v>19.0199110608036</v>
       </c>
       <c r="H21">
-        <v>2.809663391390396</v>
+        <v>2.732867141819281</v>
       </c>
       <c r="I21">
-        <v>4.101973372854395</v>
+        <v>3.987304674991653</v>
       </c>
       <c r="J21">
-        <v>7.78790260006854</v>
+        <v>7.563478884755</v>
       </c>
       <c r="K21">
-        <v>13.20245383456831</v>
+        <v>12.22529315280321</v>
       </c>
       <c r="L21">
-        <v>8.149156041146192</v>
+        <v>10.74319160800564</v>
       </c>
       <c r="M21">
-        <v>31.01663894861719</v>
+        <v>7.920937925779563</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.088588850311993</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>30.97209506541135</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.40250945819336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.68908292906733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.989608204947801</v>
+        <v>5.796196487909425</v>
       </c>
       <c r="D22">
-        <v>11.48381645648402</v>
+        <v>11.79120003078922</v>
       </c>
       <c r="E22">
-        <v>15.7874065061504</v>
+        <v>15.87183736859553</v>
       </c>
       <c r="F22">
-        <v>20.95858501175569</v>
+        <v>19.62164724708598</v>
       </c>
       <c r="G22">
-        <v>19.18477915937683</v>
+        <v>20.45160141393049</v>
       </c>
       <c r="H22">
-        <v>2.980229283068418</v>
+        <v>2.890042211483857</v>
       </c>
       <c r="I22">
-        <v>4.233791832018981</v>
+        <v>4.095458675140784</v>
       </c>
       <c r="J22">
-        <v>7.742225050463877</v>
+        <v>7.230662806576606</v>
       </c>
       <c r="K22">
-        <v>13.29779309069426</v>
+        <v>12.1340814817673</v>
       </c>
       <c r="L22">
-        <v>8.305743898200793</v>
+        <v>10.57558697549206</v>
       </c>
       <c r="M22">
-        <v>32.09252774498618</v>
+        <v>8.074214063949531</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.233510044318681</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>32.04030312322788</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.40044031767099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.49492157043012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.884810098711021</v>
+        <v>5.681726372193004</v>
       </c>
       <c r="D23">
-        <v>11.30595472613694</v>
+        <v>11.57541617023753</v>
       </c>
       <c r="E23">
-        <v>15.5564448450463</v>
+        <v>15.6280309554982</v>
       </c>
       <c r="F23">
-        <v>20.81726938135284</v>
+        <v>19.65140407574754</v>
       </c>
       <c r="G23">
-        <v>19.08165096742649</v>
+        <v>19.53068534462244</v>
       </c>
       <c r="H23">
-        <v>2.890222914331838</v>
+        <v>2.807778280013374</v>
       </c>
       <c r="I23">
-        <v>4.161874778224551</v>
+        <v>4.035595697108298</v>
       </c>
       <c r="J23">
-        <v>7.772833327412446</v>
+        <v>7.444349664116448</v>
       </c>
       <c r="K23">
-        <v>13.27242829957271</v>
+        <v>12.22485380423304</v>
       </c>
       <c r="L23">
-        <v>8.223391708293876</v>
+        <v>10.69061912533512</v>
       </c>
       <c r="M23">
-        <v>31.52316895901314</v>
+        <v>8.030256030731945</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.158365540173262</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.4753792083973</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.4177378163773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.63580659669786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.401077885087579</v>
+        <v>5.224552843112508</v>
       </c>
       <c r="D24">
-        <v>10.61791355605843</v>
+        <v>10.78368205256001</v>
       </c>
       <c r="E24">
-        <v>14.65529053168214</v>
+        <v>14.69512830058787</v>
       </c>
       <c r="F24">
-        <v>20.2628539390616</v>
+        <v>19.56689307487107</v>
       </c>
       <c r="G24">
-        <v>18.67467119590895</v>
+        <v>17.18523225219176</v>
       </c>
       <c r="H24">
-        <v>2.541094953162154</v>
+        <v>2.485416421658824</v>
       </c>
       <c r="I24">
-        <v>3.887285796103491</v>
+        <v>3.806353847337614</v>
       </c>
       <c r="J24">
-        <v>7.887748949330595</v>
+        <v>8.199083633787971</v>
       </c>
       <c r="K24">
-        <v>13.14974310348562</v>
+        <v>12.43188133154547</v>
       </c>
       <c r="L24">
-        <v>7.902524400466976</v>
+        <v>11.04923033111238</v>
       </c>
       <c r="M24">
-        <v>29.26802101804223</v>
+        <v>7.754670123835766</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.859870020526554</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>29.23552839502534</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.48071594392065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.0316071800233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.826029444889469</v>
+        <v>4.799439577452356</v>
       </c>
       <c r="D25">
-        <v>9.827218594847674</v>
+        <v>9.963136666353915</v>
       </c>
       <c r="E25">
-        <v>13.6213866873587</v>
+        <v>13.65927949275573</v>
       </c>
       <c r="F25">
-        <v>19.70625511041677</v>
+        <v>19.16856158606057</v>
       </c>
       <c r="G25">
-        <v>18.34197456505409</v>
+        <v>16.89429134297277</v>
       </c>
       <c r="H25">
-        <v>2.148557167467622</v>
+        <v>2.113425613781194</v>
       </c>
       <c r="I25">
-        <v>3.580801931259588</v>
+        <v>3.541346123143427</v>
       </c>
       <c r="J25">
-        <v>8.031196988399257</v>
+        <v>8.381749753882643</v>
       </c>
       <c r="K25">
-        <v>13.05027372553348</v>
+        <v>12.47159600935312</v>
       </c>
       <c r="L25">
-        <v>7.54101611497586</v>
+        <v>11.31637607421897</v>
       </c>
       <c r="M25">
-        <v>26.62431611974033</v>
+        <v>7.341376516283778</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.511051861870477</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.60354844073815</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.59890718250063</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.25462111831516</v>
       </c>
     </row>
   </sheetData>
